--- a/Budget data/Berkeley Budget.xlsx
+++ b/Budget data/Berkeley Budget.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxsun/Documents/Consulting/bengould.github.io/Budget data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="14400" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="111">
   <si>
     <t>General Fund: Revenues</t>
   </si>
@@ -347,12 +352,18 @@
   </si>
   <si>
     <t>Berkeley Housing Authority</t>
+  </si>
+  <si>
+    <t>FY 2018</t>
+  </si>
+  <si>
+    <t>FY 2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1062,6 +1073,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1393,7 +1412,7 @@
       <selection activeCell="I3" sqref="I3:K78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -1405,7 +1424,7 @@
     <col min="11" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1443,7 +1462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1471,7 +1490,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1509,7 +1528,7 @@
         <v>1092347</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1547,7 +1566,7 @@
         <v>3191390</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1585,7 +1604,7 @@
         <v>12027328</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1623,7 +1642,7 @@
         <v>1005000</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1661,7 +1680,7 @@
         <v>4341432</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1699,7 +1718,7 @@
         <v>1866961</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1737,7 +1756,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1775,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1813,7 +1832,7 @@
         <v>263000</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1851,7 +1870,7 @@
         <v>168550</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1889,7 +1908,7 @@
         <v>557759</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1932,7 +1951,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>38</v>
       </c>
@@ -1975,7 +1994,7 @@
         <v>24578767</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
@@ -2004,7 +2023,7 @@
       <c r="K16" s="3"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
@@ -2018,7 +2037,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
@@ -2043,7 +2062,7 @@
         <v>37710238</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>1</v>
       </c>
@@ -2081,7 +2100,7 @@
         <v>5311066</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2119,7 +2138,7 @@
         <v>12801227</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2157,7 +2176,7 @@
         <v>2510569</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2195,7 +2214,7 @@
         <v>240501</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2233,7 +2252,7 @@
         <v>12544854</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -2271,7 +2290,7 @@
         <v>3504428</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2309,7 +2328,7 @@
         <v>9191713</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2347,7 +2366,7 @@
         <v>851868</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2385,7 +2404,7 @@
         <v>2111455</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2428,7 +2447,7 @@
         <v>86777919</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2453,7 +2472,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2491,7 +2510,7 @@
         <v>6042504</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2516,7 +2535,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -2544,7 +2563,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -2582,7 +2601,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -2620,7 +2639,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2658,7 +2677,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -2696,7 +2715,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -2734,7 +2753,7 @@
         <v>103336</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
@@ -2777,7 +2796,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
@@ -2803,7 +2822,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
@@ -2834,7 +2853,7 @@
         <v>203336</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>103</v>
       </c>
@@ -2860,7 +2879,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -2889,7 +2908,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -2928,7 +2947,7 @@
         <v>296000</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2967,7 +2986,7 @@
         <v>1604969</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -3006,7 +3025,7 @@
         <v>499333</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -3045,7 +3064,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -3084,7 +3103,7 @@
         <v>1463321</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -3123,7 +3142,7 @@
         <v>4280141</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -3167,7 +3186,7 @@
         <v>8143764</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -3193,7 +3212,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -3222,7 +3241,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -3261,7 +3280,7 @@
         <v>7559973</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -3300,7 +3319,7 @@
         <v>19859520</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -3339,7 +3358,7 @@
         <v>330962</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -3383,7 +3402,7 @@
         <v>27750455</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -3409,7 +3428,7 @@
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3438,7 +3457,7 @@
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -3477,7 +3496,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -3516,7 +3535,7 @@
         <v>4023406</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -3555,7 +3574,7 @@
         <v>6461013</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>104</v>
       </c>
@@ -3599,7 +3618,7 @@
         <v>3588738</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>108</v>
       </c>
@@ -3632,7 +3651,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -3671,7 +3690,7 @@
         <v>382998</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>106</v>
       </c>
@@ -3715,7 +3734,7 @@
         <v>9201683</v>
       </c>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="3"/>
@@ -3746,7 +3765,7 @@
         <v>24382838</v>
       </c>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -3759,7 +3778,7 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="3"/>
@@ -3775,7 +3794,7 @@
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
@@ -3801,7 +3820,7 @@
         <v>5501269</v>
       </c>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G69" s="2"/>
       <c r="H69" t="s">
         <v>95</v>
@@ -3822,7 +3841,7 @@
         <v>1695888</v>
       </c>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G70" s="2"/>
       <c r="H70" t="s">
         <v>96</v>
@@ -3843,7 +3862,7 @@
         <v>17236634</v>
       </c>
     </row>
-    <row r="71" spans="2:13">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G71" s="2"/>
       <c r="H71" t="s">
         <v>97</v>
@@ -3864,7 +3883,7 @@
         <v>3900000</v>
       </c>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G72" s="2"/>
       <c r="H72" t="s">
         <v>98</v>
@@ -3885,7 +3904,7 @@
         <v>1222988</v>
       </c>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G73" s="2"/>
       <c r="H73" t="s">
         <v>99</v>
@@ -3906,7 +3925,7 @@
         <v>1000832</v>
       </c>
     </row>
-    <row r="74" spans="2:13">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G74" s="2"/>
       <c r="H74" t="s">
         <v>100</v>
@@ -3927,7 +3946,7 @@
         <v>3703018</v>
       </c>
     </row>
-    <row r="75" spans="2:13">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G75" s="2"/>
       <c r="H75" t="s">
         <v>93</v>
@@ -3948,7 +3967,7 @@
         <v>4176884</v>
       </c>
     </row>
-    <row r="76" spans="2:13">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G76" s="2"/>
       <c r="H76" s="1" t="s">
         <v>104</v>
@@ -3974,7 +3993,7 @@
         <v>38437513</v>
       </c>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -3982,7 +4001,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G78" s="2"/>
       <c r="H78" s="1" t="s">
         <v>102</v>
@@ -4008,7 +4027,7 @@
         <v>216317096</v>
       </c>
     </row>
-    <row r="79" spans="2:13">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G79" s="2"/>
       <c r="H79" s="1"/>
       <c r="I79" s="2"/>
@@ -4017,7 +4036,7 @@
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="G80" s="2"/>
       <c r="H80" s="1"/>
       <c r="I80" s="2"/>
@@ -4026,7 +4045,7 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="7:13">
+    <row r="81" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G81" s="2"/>
       <c r="H81" s="1"/>
       <c r="I81" s="2"/>
@@ -4035,7 +4054,7 @@
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" spans="7:13">
+    <row r="82" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -4043,7 +4062,7 @@
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="7:13">
+    <row r="83" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G83" s="2"/>
       <c r="H83" s="12" t="s">
         <v>107</v>
@@ -4064,7 +4083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="7:13">
+    <row r="84" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G84" s="2"/>
       <c r="H84" t="s">
         <v>2</v>
@@ -4090,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="7:13">
+    <row r="85" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G85" s="2"/>
       <c r="H85" t="s">
         <v>3</v>
@@ -4116,7 +4135,7 @@
         <v>156260</v>
       </c>
     </row>
-    <row r="86" spans="7:13">
+    <row r="86" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G86" s="2"/>
       <c r="H86" t="s">
         <v>4</v>
@@ -4142,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="7:13">
+    <row r="87" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G87" s="2"/>
       <c r="H87" t="s">
         <v>5</v>
@@ -4168,7 +4187,7 @@
         <v>494948</v>
       </c>
     </row>
-    <row r="88" spans="7:13">
+    <row r="88" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G88" s="2"/>
       <c r="H88" t="s">
         <v>6</v>
@@ -4194,7 +4213,7 @@
         <v>2301721</v>
       </c>
     </row>
-    <row r="89" spans="7:13">
+    <row r="89" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G89" s="2"/>
       <c r="H89" t="s">
         <v>7</v>
@@ -4220,7 +4239,7 @@
         <v>3542616</v>
       </c>
     </row>
-    <row r="90" spans="7:13">
+    <row r="90" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G90" s="2"/>
       <c r="H90" t="s">
         <v>8</v>
@@ -4246,7 +4265,7 @@
         <v>1784092</v>
       </c>
     </row>
-    <row r="91" spans="7:13">
+    <row r="91" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G91" s="2"/>
       <c r="H91" t="s">
         <v>9</v>
@@ -4272,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="7:13">
+    <row r="92" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G92" s="2"/>
       <c r="H92" t="s">
         <v>10</v>
@@ -4298,7 +4317,7 @@
         <v>1907626</v>
       </c>
     </row>
-    <row r="93" spans="7:13">
+    <row r="93" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G93" s="2"/>
       <c r="H93" t="s">
         <v>11</v>
@@ -4324,7 +4343,7 @@
         <v>1423561</v>
       </c>
     </row>
-    <row r="94" spans="7:13">
+    <row r="94" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G94" s="2"/>
       <c r="H94" t="s">
         <v>12</v>
@@ -4350,7 +4369,7 @@
         <v>27580827</v>
       </c>
     </row>
-    <row r="95" spans="7:13">
+    <row r="95" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G95" s="2"/>
       <c r="H95" t="s">
         <v>13</v>
@@ -4376,7 +4395,7 @@
         <v>5051999</v>
       </c>
     </row>
-    <row r="96" spans="7:13">
+    <row r="96" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G96" s="2"/>
       <c r="H96" t="s">
         <v>14</v>
@@ -4402,7 +4421,7 @@
         <v>7581542</v>
       </c>
     </row>
-    <row r="97" spans="7:13">
+    <row r="97" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G97" s="2"/>
       <c r="H97" t="s">
         <v>15</v>
@@ -4428,7 +4447,7 @@
         <v>93875848</v>
       </c>
     </row>
-    <row r="98" spans="7:13">
+    <row r="98" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G98" s="2"/>
       <c r="H98" t="s">
         <v>16</v>
@@ -4454,7 +4473,7 @@
         <v>19223958</v>
       </c>
     </row>
-    <row r="99" spans="7:13">
+    <row r="99" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G99" s="2"/>
       <c r="H99" t="s">
         <v>17</v>
@@ -4480,7 +4499,7 @@
         <v>12920482</v>
       </c>
     </row>
-    <row r="100" spans="7:13">
+    <row r="100" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G100" s="2"/>
       <c r="H100" t="s">
         <v>96</v>
@@ -4506,7 +4525,7 @@
         <v>17577785</v>
       </c>
     </row>
-    <row r="101" spans="7:13">
+    <row r="101" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G101" s="2"/>
       <c r="H101" t="s">
         <v>97</v>
@@ -4532,7 +4551,7 @@
         <v>4528273</v>
       </c>
     </row>
-    <row r="102" spans="7:13">
+    <row r="102" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G102" s="2"/>
       <c r="H102" t="s">
         <v>18</v>
@@ -4558,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="7:13">
+    <row r="103" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G103" s="2"/>
       <c r="H103" t="s">
         <v>19</v>
@@ -4584,7 +4603,7 @@
         <v>31709537</v>
       </c>
     </row>
-    <row r="104" spans="7:13">
+    <row r="104" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G104" s="2"/>
       <c r="H104" s="17" t="s">
         <v>104</v>
@@ -4610,7 +4629,7 @@
         <v>231661075</v>
       </c>
     </row>
-    <row r="105" spans="7:13">
+    <row r="105" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G105" s="2"/>
       <c r="H105" s="24" t="s">
         <v>108</v>
@@ -4625,7 +4644,7 @@
       <c r="L105" s="18"/>
       <c r="M105" s="18"/>
     </row>
-    <row r="106" spans="7:13">
+    <row r="106" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G106" s="2"/>
       <c r="H106" s="16" t="s">
         <v>105</v>
@@ -4642,7 +4661,7 @@
         <v>-54317462</v>
       </c>
     </row>
-    <row r="107" spans="7:13">
+    <row r="107" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G107" s="2"/>
       <c r="H107" s="12" t="s">
         <v>106</v>
@@ -4668,120 +4687,120 @@
         <v>177343613</v>
       </c>
     </row>
-    <row r="108" spans="7:13">
+    <row r="108" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G108" s="2"/>
       <c r="K108" s="13"/>
     </row>
-    <row r="109" spans="7:13">
+    <row r="109" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G109" s="2"/>
       <c r="K109" s="13"/>
     </row>
-    <row r="110" spans="7:13">
+    <row r="110" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G110" s="2"/>
       <c r="K110" s="13"/>
     </row>
-    <row r="111" spans="7:13">
+    <row r="111" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G111" s="2"/>
       <c r="K111" s="13"/>
     </row>
-    <row r="112" spans="7:13">
+    <row r="112" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G112" s="2"/>
       <c r="K112" s="13"/>
     </row>
-    <row r="113" spans="7:11">
+    <row r="113" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G113" s="2"/>
       <c r="K113" s="13"/>
     </row>
-    <row r="114" spans="7:11">
+    <row r="114" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G114" s="2"/>
       <c r="K114" s="13"/>
     </row>
-    <row r="115" spans="7:11">
+    <row r="115" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G115" s="2"/>
       <c r="K115" s="13"/>
     </row>
-    <row r="116" spans="7:11">
+    <row r="116" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G116" s="2"/>
       <c r="K116" s="13"/>
     </row>
-    <row r="117" spans="7:11">
+    <row r="117" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G117" s="2"/>
       <c r="K117" s="13"/>
     </row>
-    <row r="118" spans="7:11">
+    <row r="118" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G118" s="2"/>
       <c r="K118" s="13"/>
     </row>
-    <row r="119" spans="7:11">
+    <row r="119" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G119" s="2"/>
       <c r="K119" s="13"/>
     </row>
-    <row r="120" spans="7:11">
+    <row r="120" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G120" s="2"/>
       <c r="K120" s="13"/>
     </row>
-    <row r="121" spans="7:11">
+    <row r="121" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G121" s="2"/>
       <c r="K121" s="13"/>
     </row>
-    <row r="122" spans="7:11">
+    <row r="122" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="7:11">
+    <row r="123" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="7:11">
+    <row r="124" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="7:11">
+    <row r="125" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="7:11">
+    <row r="126" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="7:11">
+    <row r="127" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="7:11">
+    <row r="128" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="2:7">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="2:7">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
@@ -4789,7 +4808,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="2:7">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
@@ -4797,7 +4816,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="3"/>
@@ -4805,7 +4824,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="3"/>
@@ -4813,7 +4832,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="2:7">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="3"/>
@@ -4821,7 +4840,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="2:7">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="3"/>
@@ -4829,7 +4848,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="2:7">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="3"/>
@@ -4837,490 +4856,490 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="2:7">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="3"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="3"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="2:7">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="3"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="3"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="3"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="3"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="3"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="3"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="2:7">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="3"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="3"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="2:7">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="3"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="2:7">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="3"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="2:6">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="3"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="2:6">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="2:6">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="3"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="2:6">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="3"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="2:6">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="3"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="2:6">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="3"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="2:6">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="3"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="2:6">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="3"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="2:6">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="3"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="2:6">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="3"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="2:6">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="3"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="2:6">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="2:6">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="3"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="2:6">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="3"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="2:6">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="3"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="2:6">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="3"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="2:6">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="3"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="2:6">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="3"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="2:6">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="3"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="2:6">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
-    <row r="181" spans="2:6">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="3"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="2:6">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="2:6">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="3"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="2:6">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="3"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="2:6">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="3"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="2:6">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="2:6">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="3"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="2:6">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="3"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="2:6">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="3"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="2:6">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="3"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="2:6">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="3"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="2:6">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
     </row>
-    <row r="193" spans="2:6">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="3"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="2:6">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="3"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="2:6">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="3"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
-    <row r="196" spans="2:6">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="3"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="2:6">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="3"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="2:6">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="3"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="2:6">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="3"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
     </row>
-    <row r="200" spans="2:6">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="3"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="2:6">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="3"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="2:6">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
     </row>
-    <row r="203" spans="2:6">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="3"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="2:6">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="3"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
     </row>
-    <row r="205" spans="2:6">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="3"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="2:6">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="3"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="2:6">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="3"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
     </row>
-    <row r="208" spans="2:6">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="3"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
     </row>
-    <row r="209" spans="2:6">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="3"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="2:6">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="3"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="2:6">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="3"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
     </row>
-    <row r="212" spans="2:6">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="3"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
     </row>
-    <row r="213" spans="2:6">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="3"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="2:6">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="3"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
     </row>
-    <row r="215" spans="2:6">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="3"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
-    <row r="216" spans="2:6">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="3"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="2:6">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="3"/>
@@ -5340,21 +5359,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D72" workbookViewId="0">
-      <selection activeCell="K103" sqref="K103"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" workbookViewId="0">
+      <selection activeCell="S101" sqref="S101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5373,26 +5393,38 @@
       <c r="F1" t="s">
         <v>24</v>
       </c>
+      <c r="G1" t="s">
+        <v>109</v>
+      </c>
       <c r="H1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="P1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -5411,16 +5443,22 @@
       <c r="F2">
         <v>48126587</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2">
+        <v>50018636</v>
+      </c>
+      <c r="H2">
+        <v>50768165</v>
+      </c>
+      <c r="J2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -5439,26 +5477,38 @@
       <c r="F3">
         <v>10500000</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3">
+        <v>12500000</v>
+      </c>
+      <c r="H3">
+        <v>12500000</v>
+      </c>
+      <c r="J3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="2">
+      <c r="K3" s="2">
         <v>984051</v>
       </c>
-      <c r="J3" s="2">
+      <c r="L3" s="2">
         <v>1032227</v>
       </c>
-      <c r="K3" s="2">
+      <c r="M3" s="2">
         <v>1052122</v>
       </c>
-      <c r="L3" s="2">
+      <c r="N3" s="2">
         <v>1070929</v>
       </c>
-      <c r="M3" s="2">
+      <c r="O3" s="2">
         <v>1092347</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="P3" s="2">
+        <v>1209625</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1233817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -5477,26 +5527,38 @@
       <c r="F4">
         <v>2907777</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4">
+        <v>2767684</v>
+      </c>
+      <c r="H4">
+        <v>2809200</v>
+      </c>
+      <c r="J4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="2">
+      <c r="K4" s="2">
         <v>3110933</v>
       </c>
-      <c r="J4" s="2">
+      <c r="L4" s="2">
         <v>3226626</v>
       </c>
-      <c r="K4" s="2">
+      <c r="M4" s="2">
         <v>2844356</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N4" s="2">
         <v>3050030</v>
       </c>
-      <c r="M4" s="2">
+      <c r="O4" s="2">
         <v>3191390</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="P4" s="2">
+        <v>3417084</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3475415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -5515,26 +5577,38 @@
       <c r="F5">
         <v>17210353</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5">
+        <v>18000000</v>
+      </c>
+      <c r="H5">
+        <v>18522000</v>
+      </c>
+      <c r="J5" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>9542084</v>
       </c>
-      <c r="J5" s="2">
+      <c r="L5" s="2">
         <v>9762684</v>
       </c>
-      <c r="K5" s="2">
+      <c r="M5" s="2">
         <v>9948439</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2">
         <v>11826449</v>
       </c>
-      <c r="M5" s="2">
+      <c r="O5" s="2">
         <v>12027328</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="P5" s="2">
+        <v>12816390</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>13081657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -5553,26 +5627,38 @@
       <c r="F6">
         <v>17097934</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6">
+        <v>18451191</v>
+      </c>
+      <c r="H6">
+        <v>18727959</v>
+      </c>
+      <c r="J6" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>969769</v>
       </c>
-      <c r="J6" s="2">
+      <c r="L6" s="2">
         <v>947947</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1005000</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1005000</v>
       </c>
       <c r="M6" s="2">
         <v>1005000</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="2">
+        <v>1005000</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1005000</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1250000</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -5591,26 +5677,38 @@
       <c r="F7">
         <v>6693110</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7">
+        <v>7969633</v>
+      </c>
+      <c r="H7">
+        <v>8089178</v>
+      </c>
+      <c r="J7" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>3917791</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>4130013</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>4186198</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>4256305</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>4341432</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="P7" s="2">
+        <v>4812892</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>4909150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -5629,26 +5727,38 @@
       <c r="F8">
         <v>14194436</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8">
+        <v>14282375</v>
+      </c>
+      <c r="H8">
+        <v>14496610</v>
+      </c>
+      <c r="J8" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="2">
+      <c r="K8" s="2">
         <v>2052466</v>
       </c>
-      <c r="J8" s="2">
+      <c r="L8" s="2">
         <v>2065845</v>
       </c>
-      <c r="K8" s="2">
+      <c r="M8" s="2">
         <v>2023244</v>
       </c>
-      <c r="L8" s="2">
+      <c r="N8" s="2">
         <v>1866961</v>
       </c>
-      <c r="M8" s="2">
+      <c r="O8" s="2">
         <v>1866961</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="P8" s="2">
+        <v>1352432</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1410489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -5667,26 +5777,38 @@
       <c r="F9">
         <v>10566772</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9">
+        <v>10320402</v>
+      </c>
+      <c r="H9">
+        <v>10475208</v>
+      </c>
+      <c r="J9" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="2">
+      <c r="K9" s="2">
         <v>52888</v>
       </c>
-      <c r="J9" s="2">
+      <c r="L9" s="2">
         <v>28164</v>
-      </c>
-      <c r="K9" s="2">
-        <v>35000</v>
-      </c>
-      <c r="L9" s="2">
-        <v>35000</v>
       </c>
       <c r="M9" s="2">
         <v>35000</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="2">
+        <v>35000</v>
+      </c>
+      <c r="O9" s="2">
+        <v>35000</v>
+      </c>
+      <c r="P9" s="2">
+        <v>35000</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -5705,24 +5827,30 @@
       <c r="F10">
         <v>7395725</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10">
+        <v>6503322</v>
+      </c>
+      <c r="H10">
+        <v>6600871</v>
+      </c>
+      <c r="J10" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="2">
+      <c r="K10" s="2">
         <v>4613</v>
       </c>
-      <c r="J10" s="2">
+      <c r="L10" s="2">
         <v>10</v>
       </c>
-      <c r="K10" s="2">
+      <c r="M10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -5741,26 +5869,38 @@
       <c r="F11">
         <v>239292</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11">
+        <v>239770</v>
+      </c>
+      <c r="H11">
+        <v>243367</v>
+      </c>
+      <c r="J11" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="2">
+      <c r="K11" s="2">
         <v>226933</v>
       </c>
-      <c r="J11" s="2">
+      <c r="L11" s="2">
         <v>226450</v>
-      </c>
-      <c r="K11" s="2">
-        <v>263000</v>
-      </c>
-      <c r="L11" s="2">
-        <v>263000</v>
       </c>
       <c r="M11" s="2">
         <v>263000</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="2">
+        <v>263000</v>
+      </c>
+      <c r="O11" s="2">
+        <v>263000</v>
+      </c>
+      <c r="P11" s="2">
+        <v>489000</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>489000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -5779,26 +5919,38 @@
       <c r="F12">
         <v>2346500</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12">
+        <v>2211000</v>
+      </c>
+      <c r="H12">
+        <v>2244165</v>
+      </c>
+      <c r="J12" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="2">
+      <c r="K12" s="2">
         <v>165672</v>
       </c>
-      <c r="J12" s="2">
+      <c r="L12" s="2">
         <v>164558</v>
-      </c>
-      <c r="K12" s="2">
-        <v>168550</v>
-      </c>
-      <c r="L12" s="2">
-        <v>168550</v>
       </c>
       <c r="M12" s="2">
         <v>168550</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="2">
+        <v>168550</v>
+      </c>
+      <c r="O12" s="2">
+        <v>168550</v>
+      </c>
+      <c r="P12" s="2">
+        <v>174011</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>174011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -5817,26 +5969,40 @@
       <c r="F13">
         <v>8143343</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13">
+        <f xml:space="preserve"> 1955315 + 4823720</f>
+        <v>6779035</v>
+      </c>
+      <c r="H13">
+        <f>4913194 + 1984644</f>
+        <v>6897838</v>
+      </c>
+      <c r="J13" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="2">
+      <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="2">
+      <c r="L13" s="2">
         <v>488864</v>
       </c>
-      <c r="K13" s="2">
+      <c r="M13" s="2">
         <v>496424</v>
       </c>
-      <c r="L13" s="2">
+      <c r="N13" s="2">
         <v>546823</v>
       </c>
-      <c r="M13" s="2">
+      <c r="O13" s="2">
         <v>557759</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="P13" s="2">
+        <v>664136</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>674098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5855,26 +6021,40 @@
       <c r="F14">
         <v>145421829</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14">
+        <f>SUM(G2:G13)</f>
+        <v>150043048</v>
+      </c>
+      <c r="H14">
+        <f>SUM(H2:H13)</f>
+        <v>152374561</v>
+      </c>
+      <c r="J14" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="2">
+      <c r="K14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="2">
+      <c r="L14" s="2">
         <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>30000</v>
-      </c>
-      <c r="L14" s="2">
-        <v>30000</v>
       </c>
       <c r="M14" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="2">
+        <v>30000</v>
+      </c>
+      <c r="O14" s="2">
+        <v>30000</v>
+      </c>
+      <c r="P14" s="2">
+        <v>30000</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -5893,26 +6073,40 @@
       <c r="F15">
         <v>15970747</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15">
+        <v>11106877</v>
+      </c>
+      <c r="H15">
+        <v>11114390</v>
+      </c>
+      <c r="J15" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="2">
+      <c r="K15" s="2">
         <v>21027200</v>
       </c>
-      <c r="J15" s="2">
+      <c r="L15" s="2">
         <v>22073388</v>
       </c>
-      <c r="K15" s="2">
+      <c r="M15" s="2">
         <v>22052333</v>
       </c>
-      <c r="L15" s="2">
+      <c r="N15" s="2">
         <v>24119047</v>
       </c>
-      <c r="M15" s="2">
+      <c r="O15" s="2">
         <v>24578767</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="P15" s="2">
+        <f>SUM(P3:P14)</f>
+        <v>26250570</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>SUM(Q3:Q14)</f>
+        <v>26762637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -5929,45 +6123,60 @@
         <v>159454975</v>
       </c>
       <c r="F16">
+        <f>SUM(F15,F2:F13)</f>
         <v>161392576</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="G16">
+        <f>SUM(G15,G2:G13)</f>
+        <v>161149925</v>
+      </c>
+      <c r="H16">
+        <f>SUM(H15,H2:H13)</f>
+        <v>163488951</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="H17" t="s">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="H18" t="s">
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="2">
+      <c r="K18" s="2">
         <v>33861186</v>
       </c>
-      <c r="J18" s="2">
+      <c r="L18" s="2">
         <v>34101574</v>
       </c>
-      <c r="K18" s="2">
+      <c r="M18" s="2">
         <v>36673523</v>
       </c>
-      <c r="L18" s="2">
+      <c r="N18" s="2">
         <v>37600783</v>
       </c>
-      <c r="M18" s="2">
+      <c r="O18" s="2">
         <v>37710238</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="P18" s="2">
+        <v>40453300</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>41242753</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -5986,26 +6195,38 @@
       <c r="F19" t="s">
         <v>24</v>
       </c>
+      <c r="G19" t="s">
+        <v>109</v>
+      </c>
       <c r="H19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="2">
+      <c r="K19" s="2">
         <v>5230735</v>
       </c>
-      <c r="J19" s="2">
+      <c r="L19" s="2">
         <v>5478724</v>
       </c>
-      <c r="K19" s="2">
+      <c r="M19" s="2">
         <v>5558716</v>
       </c>
-      <c r="L19" s="2">
+      <c r="N19" s="2">
         <v>5311066</v>
       </c>
-      <c r="M19" s="2">
+      <c r="O19" s="2">
         <v>5311066</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="P19" s="2">
+        <v>6245459</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>6270459</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -6024,26 +6245,38 @@
       <c r="F20">
         <v>1810354</v>
       </c>
-      <c r="H20" t="s">
+      <c r="G20">
+        <v>2028441</v>
+      </c>
+      <c r="H20">
+        <v>2074738</v>
+      </c>
+      <c r="J20" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="2">
+      <c r="K20" s="2">
         <v>13315067</v>
       </c>
-      <c r="J20" s="2">
+      <c r="L20" s="2">
         <v>13588024</v>
-      </c>
-      <c r="K20" s="2">
-        <v>12801227</v>
-      </c>
-      <c r="L20" s="2">
-        <v>12801227</v>
       </c>
       <c r="M20" s="2">
         <v>12801227</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="2">
+        <v>12801227</v>
+      </c>
+      <c r="O20" s="2">
+        <v>12801227</v>
+      </c>
+      <c r="P20" s="2">
+        <v>21384982</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>22827768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -6062,26 +6295,38 @@
       <c r="F21">
         <v>2147259</v>
       </c>
-      <c r="H21" t="s">
+      <c r="G21">
+        <v>2261463</v>
+      </c>
+      <c r="H21">
+        <v>2304413</v>
+      </c>
+      <c r="J21" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="2">
+      <c r="K21" s="2">
         <v>2467033</v>
       </c>
-      <c r="J21" s="2">
+      <c r="L21" s="2">
         <v>2316216</v>
       </c>
-      <c r="K21" s="2">
+      <c r="M21" s="2">
         <v>2365140</v>
       </c>
-      <c r="L21" s="2">
+      <c r="N21" s="2">
         <v>2502740</v>
       </c>
-      <c r="M21" s="2">
+      <c r="O21" s="2">
         <v>2510569</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="P21" s="2">
+        <v>2388633</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>2369937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -6100,26 +6345,38 @@
       <c r="F22">
         <v>570417</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G22">
+        <v>722180</v>
+      </c>
+      <c r="H22">
+        <v>738060</v>
+      </c>
+      <c r="J22" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="2">
+      <c r="K22" s="2">
         <v>577473</v>
       </c>
-      <c r="J22" s="2">
+      <c r="L22" s="2">
         <v>245868</v>
-      </c>
-      <c r="K22" s="2">
-        <v>240501</v>
-      </c>
-      <c r="L22" s="2">
-        <v>240501</v>
       </c>
       <c r="M22" s="2">
         <v>240501</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="2">
+        <v>240501</v>
+      </c>
+      <c r="O22" s="2">
+        <v>240501</v>
+      </c>
+      <c r="P22" s="2">
+        <v>240501</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>240501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -6138,26 +6395,38 @@
       <c r="F23">
         <v>4901792</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23">
+        <v>5883194</v>
+      </c>
+      <c r="H23">
+        <v>6106514</v>
+      </c>
+      <c r="J23" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="2">
+      <c r="K23" s="2">
         <v>9249750</v>
       </c>
-      <c r="J23" s="2">
+      <c r="L23" s="2">
         <v>14087031</v>
       </c>
-      <c r="K23" s="2">
+      <c r="M23" s="2">
         <v>13552248</v>
       </c>
-      <c r="L23" s="2">
+      <c r="N23" s="2">
         <v>12238260</v>
       </c>
-      <c r="M23" s="2">
+      <c r="O23" s="2">
         <v>12544854</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="P23" s="2">
+        <v>14528343</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>15003859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -6176,26 +6445,38 @@
       <c r="F24">
         <v>2063458</v>
       </c>
-      <c r="H24" t="s">
+      <c r="G24">
+        <v>2691403</v>
+      </c>
+      <c r="H24">
+        <v>2560121</v>
+      </c>
+      <c r="J24" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="2">
+      <c r="K24" s="2">
         <v>3781582</v>
       </c>
-      <c r="J24" s="2">
+      <c r="L24" s="2">
         <v>3858118</v>
       </c>
-      <c r="K24" s="2">
+      <c r="M24" s="2">
         <v>3743972</v>
       </c>
-      <c r="L24" s="2">
+      <c r="N24" s="2">
         <v>4204428</v>
       </c>
-      <c r="M24" s="2">
+      <c r="O24" s="2">
         <v>3504428</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="P24" s="2">
+        <v>3496428</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>3496428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -6214,26 +6495,38 @@
       <c r="F25">
         <v>5288686</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G25">
+        <v>5770103</v>
+      </c>
+      <c r="H25">
+        <v>6232527</v>
+      </c>
+      <c r="J25" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="2">
+      <c r="K25" s="2">
         <v>6496735</v>
       </c>
-      <c r="J25" s="2">
+      <c r="L25" s="2">
         <v>8052253</v>
       </c>
-      <c r="K25" s="2">
+      <c r="M25" s="2">
         <v>6861311</v>
       </c>
-      <c r="L25" s="2">
+      <c r="N25" s="2">
         <v>9191713</v>
       </c>
-      <c r="M25" s="2">
+      <c r="O25" s="2">
         <v>9191713</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="P25" s="2">
+        <v>9191713</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>9191713</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -6252,26 +6545,38 @@
       <c r="F26">
         <v>2255910</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26">
+        <v>2398356</v>
+      </c>
+      <c r="H26">
+        <v>2453702</v>
+      </c>
+      <c r="J26" t="s">
         <v>63</v>
       </c>
-      <c r="I26" s="2">
+      <c r="K26" s="2">
         <v>835264</v>
       </c>
-      <c r="J26" s="2">
+      <c r="L26" s="2">
         <v>792597</v>
       </c>
-      <c r="K26" s="2">
+      <c r="M26" s="2">
         <v>864531</v>
       </c>
-      <c r="L26" s="2">
+      <c r="N26" s="2">
         <v>851868</v>
       </c>
-      <c r="M26" s="2">
+      <c r="O26" s="2">
         <v>851868</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="P26" s="2">
+        <v>792500</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>780500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -6290,26 +6595,38 @@
       <c r="F27">
         <v>2004248</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27">
+        <v>2059366</v>
+      </c>
+      <c r="H27">
+        <v>2097256</v>
+      </c>
+      <c r="J27" t="s">
         <v>64</v>
       </c>
-      <c r="I27" s="2">
+      <c r="K27" s="2">
         <v>2632711</v>
       </c>
-      <c r="J27" s="2">
+      <c r="L27" s="2">
         <v>2237128</v>
       </c>
-      <c r="K27" s="2">
+      <c r="M27" s="2">
         <v>2193961</v>
       </c>
-      <c r="L27" s="2">
+      <c r="N27" s="2">
         <v>2086780</v>
       </c>
-      <c r="M27" s="2">
+      <c r="O27" s="2">
         <v>2111455</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="P27" s="2">
+        <v>3043752</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>3056813</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -6328,26 +6645,40 @@
       <c r="F28">
         <v>5637409</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G28">
+        <v>5756160</v>
+      </c>
+      <c r="H28">
+        <v>5741525</v>
+      </c>
+      <c r="J28" t="s">
         <v>104</v>
       </c>
-      <c r="I28" s="2">
+      <c r="K28" s="2">
         <v>78447536</v>
       </c>
-      <c r="J28" s="2">
+      <c r="L28" s="2">
         <v>84757533</v>
       </c>
-      <c r="K28" s="2">
+      <c r="M28" s="2">
         <v>84855130</v>
       </c>
-      <c r="L28" s="2">
+      <c r="N28" s="2">
         <v>87029366</v>
       </c>
-      <c r="M28" s="2">
+      <c r="O28" s="2">
         <v>86777919</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="P28" s="2">
+        <f>SUM(P18:P27)</f>
+        <v>101765611</v>
+      </c>
+      <c r="Q28" s="2">
+        <f>SUM(Q18:Q27)</f>
+        <v>104480731</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -6366,13 +6697,19 @@
       <c r="F29">
         <v>1873393</v>
       </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="G29">
+        <v>1977674</v>
+      </c>
+      <c r="H29">
+        <v>2024979</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -6391,26 +6728,38 @@
       <c r="F30">
         <v>12528058</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G30">
+        <v>15049190</v>
+      </c>
+      <c r="H30">
+        <v>14946689</v>
+      </c>
+      <c r="J30" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="2">
+      <c r="K30" s="2">
         <v>7360154</v>
       </c>
-      <c r="J30" s="2">
+      <c r="L30" s="2">
         <v>6713733</v>
       </c>
-      <c r="K30" s="2">
+      <c r="M30" s="2">
         <v>6161504</v>
       </c>
-      <c r="L30" s="2">
+      <c r="N30" s="2">
         <v>6042504</v>
       </c>
-      <c r="M30" s="2">
+      <c r="O30" s="2">
         <v>6042504</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="P30" s="2">
+        <v>9197989</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>9376698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -6429,13 +6778,19 @@
       <c r="F31">
         <v>58368718</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="G31">
+        <v>61378677</v>
+      </c>
+      <c r="H31">
+        <v>63187683</v>
+      </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -6454,16 +6809,22 @@
       <c r="F32">
         <v>28692307</v>
       </c>
-      <c r="H32" t="s">
+      <c r="G32">
+        <v>30984535</v>
+      </c>
+      <c r="H32">
+        <v>31985365</v>
+      </c>
+      <c r="J32" t="s">
         <v>66</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -6482,26 +6843,38 @@
       <c r="F33">
         <v>2696864</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G33">
+        <v>3276300</v>
+      </c>
+      <c r="H33">
+        <v>3317370</v>
+      </c>
+      <c r="J33" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="2">
+      <c r="K33" s="2">
         <v>17486</v>
       </c>
-      <c r="J33" s="2">
+      <c r="L33" s="2">
         <v>2639</v>
       </c>
-      <c r="K33" s="2">
+      <c r="M33" s="2">
         <v>0</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="N33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="P33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -6520,26 +6893,38 @@
       <c r="F34">
         <v>5614605</v>
       </c>
-      <c r="H34" t="s">
+      <c r="G34">
+        <v>5689002</v>
+      </c>
+      <c r="H34">
+        <v>5741567</v>
+      </c>
+      <c r="J34" t="s">
         <v>68</v>
       </c>
-      <c r="I34" s="2">
+      <c r="K34" s="2">
         <v>3253</v>
       </c>
-      <c r="J34" s="2">
+      <c r="L34" s="2">
         <v>1032</v>
       </c>
-      <c r="K34" s="2">
+      <c r="M34" s="2">
         <v>0</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="O34" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="P34" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -6558,26 +6943,32 @@
       <c r="F35">
         <v>1707729</v>
       </c>
-      <c r="H35" t="s">
+      <c r="G35">
+        <v>1923055</v>
+      </c>
+      <c r="H35">
+        <v>1939915</v>
+      </c>
+      <c r="J35" t="s">
         <v>69</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2">
-        <v>14975000</v>
       </c>
       <c r="K35" s="2">
         <v>0</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="2">
+        <v>14975000</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -6596,26 +6987,32 @@
       <c r="F36">
         <v>4762302</v>
       </c>
-      <c r="H36" t="s">
+      <c r="G36">
+        <v>6634869</v>
+      </c>
+      <c r="H36">
+        <v>6595869</v>
+      </c>
+      <c r="J36" t="s">
         <v>70</v>
       </c>
-      <c r="I36" s="2">
+      <c r="K36" s="2">
         <v>952</v>
       </c>
-      <c r="J36" s="2">
+      <c r="L36" s="2">
         <v>292</v>
       </c>
-      <c r="K36" s="2">
+      <c r="M36" s="2">
         <v>0</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="N36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="O36" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -6634,26 +7031,38 @@
       <c r="F37">
         <v>18466873</v>
       </c>
-      <c r="H37" t="s">
+      <c r="G37">
+        <v>16407834</v>
+      </c>
+      <c r="H37">
+        <v>15265959</v>
+      </c>
+      <c r="J37" t="s">
         <v>71</v>
       </c>
-      <c r="I37" s="2">
+      <c r="K37" s="2">
         <v>0</v>
       </c>
-      <c r="J37" s="2">
+      <c r="L37" s="2">
         <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <v>103336</v>
-      </c>
-      <c r="L37" s="2">
-        <v>103336</v>
       </c>
       <c r="M37" s="2">
         <v>103336</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="2">
+        <v>103336</v>
+      </c>
+      <c r="O37" s="2">
+        <v>103336</v>
+      </c>
+      <c r="P37" s="2">
+        <v>103336</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>103336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -6672,17 +7081,19 @@
       <c r="F38">
         <v>161390382</v>
       </c>
-      <c r="H38" t="s">
+      <c r="G38">
+        <f>SUM(G20:G37)</f>
+        <v>172891802</v>
+      </c>
+      <c r="H38">
+        <f>SUM(H20:H37)</f>
+        <v>175314252</v>
+      </c>
+      <c r="J38" t="s">
         <v>72</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>100002</v>
-      </c>
-      <c r="J38" s="2">
-        <v>100000</v>
-      </c>
-      <c r="K38" s="2">
-        <v>100000</v>
       </c>
       <c r="L38" s="2">
         <v>100000</v>
@@ -6690,48 +7101,68 @@
       <c r="M38" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="H39" t="s">
+      <c r="N38" s="2">
+        <v>100000</v>
+      </c>
+      <c r="O38" s="2">
+        <v>100000</v>
+      </c>
+      <c r="P38" s="2">
+        <v>100000</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J39" t="s">
         <v>73</v>
       </c>
-      <c r="I39" s="2">
+      <c r="K39" s="2">
         <v>13</v>
       </c>
-      <c r="J39" s="2">
+      <c r="L39" s="2">
         <v>4</v>
       </c>
-      <c r="K39" s="2">
+      <c r="M39" s="2">
         <v>0</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="O39" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
-      <c r="H40" t="s">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J40" t="s">
         <v>104</v>
       </c>
-      <c r="I40" s="2">
+      <c r="K40" s="2">
         <v>121706</v>
       </c>
-      <c r="J40" s="2">
+      <c r="L40" s="2">
         <v>15078967</v>
-      </c>
-      <c r="K40" s="2">
-        <v>203336</v>
-      </c>
-      <c r="L40" s="2">
-        <v>203336</v>
       </c>
       <c r="M40" s="2">
         <v>203336</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="2">
+        <v>203336</v>
+      </c>
+      <c r="O40" s="2">
+        <v>203336</v>
+      </c>
+      <c r="P40" s="2">
+        <f>SUM(P37:P38)</f>
+        <v>203336</v>
+      </c>
+      <c r="Q40" s="2">
+        <f>SUM(Q37:Q38)</f>
+        <v>203336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -6750,13 +7181,19 @@
       <c r="F41" t="s">
         <v>24</v>
       </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="G41" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" t="s">
+        <v>110</v>
+      </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -6775,16 +7212,22 @@
       <c r="F42">
         <v>1810354</v>
       </c>
-      <c r="H42" t="s">
+      <c r="G42">
+        <v>2028441</v>
+      </c>
+      <c r="H42">
+        <v>2074738</v>
+      </c>
+      <c r="J42" t="s">
         <v>74</v>
       </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -6803,26 +7246,38 @@
       <c r="F43">
         <v>2303519</v>
       </c>
-      <c r="H43" t="s">
+      <c r="G43">
+        <v>2424263</v>
+      </c>
+      <c r="H43">
+        <v>2470998</v>
+      </c>
+      <c r="J43" t="s">
         <v>75</v>
       </c>
-      <c r="I43" s="2">
+      <c r="K43" s="2">
         <v>473295</v>
       </c>
-      <c r="J43" s="2">
+      <c r="L43" s="2">
         <v>473287</v>
       </c>
-      <c r="K43" s="2">
+      <c r="M43" s="2">
         <v>376750</v>
       </c>
-      <c r="L43" s="2">
+      <c r="N43" s="2">
         <v>335750</v>
       </c>
-      <c r="M43" s="2">
+      <c r="O43" s="2">
         <v>296000</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="P43" s="2">
+        <v>262500</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -6841,26 +7296,38 @@
       <c r="F44">
         <v>570417</v>
       </c>
-      <c r="H44" t="s">
+      <c r="G44">
+        <v>722180</v>
+      </c>
+      <c r="H44">
+        <v>738060</v>
+      </c>
+      <c r="J44" t="s">
         <v>76</v>
       </c>
-      <c r="I44" s="2">
+      <c r="K44" s="2">
         <v>1654837</v>
       </c>
-      <c r="J44" s="2">
+      <c r="L44" s="2">
         <v>1752087</v>
-      </c>
-      <c r="K44" s="2">
-        <v>1604969</v>
-      </c>
-      <c r="L44" s="2">
-        <v>1604969</v>
       </c>
       <c r="M44" s="2">
         <v>1604969</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="2">
+        <v>1604969</v>
+      </c>
+      <c r="O44" s="2">
+        <v>1604969</v>
+      </c>
+      <c r="P44" s="2">
+        <v>1604969</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>1604969</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -6879,26 +7346,38 @@
       <c r="F45">
         <v>5396740</v>
       </c>
-      <c r="H45" t="s">
+      <c r="G45">
+        <v>6637466</v>
+      </c>
+      <c r="H45">
+        <v>6867862</v>
+      </c>
+      <c r="J45" t="s">
         <v>77</v>
       </c>
-      <c r="I45" s="2">
+      <c r="K45" s="2">
         <v>5829505</v>
       </c>
-      <c r="J45" s="2">
+      <c r="L45" s="2">
         <v>456963</v>
       </c>
-      <c r="K45" s="2">
+      <c r="M45" s="2">
         <v>500317</v>
       </c>
-      <c r="L45" s="2">
+      <c r="N45" s="2">
         <v>500645</v>
       </c>
-      <c r="M45" s="2">
+      <c r="O45" s="2">
         <v>499333</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="P45" s="2">
+        <v>499942</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>498935</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -6917,26 +7396,38 @@
       <c r="F46">
         <v>4365179</v>
       </c>
-      <c r="H46" t="s">
+      <c r="G46">
+        <v>5626805</v>
+      </c>
+      <c r="H46">
+        <v>5501089</v>
+      </c>
+      <c r="J46" t="s">
         <v>78</v>
       </c>
-      <c r="I46" s="2">
+      <c r="K46" s="2">
         <v>992638</v>
       </c>
-      <c r="J46" s="2">
+      <c r="L46" s="2">
         <v>991639</v>
       </c>
-      <c r="K46" s="2">
+      <c r="M46" s="2">
         <v>0</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="N46" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M46" s="2" t="s">
+      <c r="O46" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="P46" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -6955,26 +7446,38 @@
       <c r="F47">
         <v>8831302</v>
       </c>
-      <c r="H47" t="s">
+      <c r="G47">
+        <v>16291888</v>
+      </c>
+      <c r="H47">
+        <v>17243481</v>
+      </c>
+      <c r="J47" t="s">
         <v>79</v>
       </c>
-      <c r="I47" s="2">
+      <c r="K47" s="2">
         <v>1505385</v>
       </c>
-      <c r="J47" s="2">
+      <c r="L47" s="2">
         <v>1650360</v>
-      </c>
-      <c r="K47" s="2">
-        <v>1463321</v>
-      </c>
-      <c r="L47" s="2">
-        <v>1463321</v>
       </c>
       <c r="M47" s="2">
         <v>1463321</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" s="2">
+        <v>1463321</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1463321</v>
+      </c>
+      <c r="P47" s="2">
+        <v>1463321</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>1463321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -6993,26 +7496,38 @@
       <c r="F48">
         <v>4040002</v>
       </c>
-      <c r="H48" t="s">
+      <c r="G48">
+        <v>4343771</v>
+      </c>
+      <c r="H48">
+        <v>4418951</v>
+      </c>
+      <c r="J48" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="2">
+      <c r="K48" s="2">
         <v>3973698</v>
       </c>
-      <c r="J48" s="2">
+      <c r="L48" s="2">
         <v>5321667</v>
       </c>
-      <c r="K48" s="2">
+      <c r="M48" s="2">
         <v>4283772</v>
       </c>
-      <c r="L48" s="2">
+      <c r="N48" s="2">
         <v>4274566</v>
       </c>
-      <c r="M48" s="2">
+      <c r="O48" s="2">
         <v>4280141</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="P48" s="2">
+        <v>4275466</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>4275416</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -7031,26 +7546,40 @@
       <c r="F49">
         <v>2004248</v>
       </c>
-      <c r="H49" t="s">
+      <c r="G49">
+        <v>2059366</v>
+      </c>
+      <c r="H49">
+        <v>2097256</v>
+      </c>
+      <c r="J49" t="s">
         <v>104</v>
       </c>
-      <c r="I49" s="2">
+      <c r="K49" s="2">
         <v>14429358</v>
       </c>
-      <c r="J49" s="2">
+      <c r="L49" s="2">
         <v>10646003</v>
       </c>
-      <c r="K49" s="2">
+      <c r="M49" s="2">
         <v>8229129</v>
       </c>
-      <c r="L49" s="2">
+      <c r="N49" s="2">
         <v>8179251</v>
       </c>
-      <c r="M49" s="2">
+      <c r="O49" s="2">
         <v>8143764</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="P49" s="2">
+        <f>SUM(P43:P48)</f>
+        <v>8106198</v>
+      </c>
+      <c r="Q49" s="2">
+        <f>SUM(Q43:Q48)</f>
+        <v>7842641</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -7069,13 +7598,19 @@
       <c r="F50">
         <v>7545035</v>
       </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
+      <c r="G50">
+        <v>7727093</v>
+      </c>
+      <c r="H50">
+        <v>7743231</v>
+      </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -7094,16 +7629,22 @@
       <c r="F51">
         <v>3296954</v>
       </c>
-      <c r="H51" t="s">
+      <c r="G51">
+        <v>3810616</v>
+      </c>
+      <c r="H51">
+        <v>3900907</v>
+      </c>
+      <c r="J51" t="s">
         <v>81</v>
       </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -7122,26 +7663,38 @@
       <c r="F52">
         <v>40108885</v>
       </c>
-      <c r="H52" t="s">
+      <c r="G52">
+        <v>47355255</v>
+      </c>
+      <c r="H52">
+        <v>48602035</v>
+      </c>
+      <c r="J52" t="s">
         <v>82</v>
       </c>
-      <c r="I52" s="2">
+      <c r="K52" s="2">
         <v>7320500</v>
       </c>
-      <c r="J52" s="2">
+      <c r="L52" s="2">
         <v>8012853</v>
       </c>
-      <c r="K52" s="2">
+      <c r="M52" s="2">
         <v>7274894</v>
       </c>
-      <c r="L52" s="2">
+      <c r="N52" s="2">
         <v>7559973</v>
       </c>
-      <c r="M52" s="2">
+      <c r="O52" s="2">
         <v>7559973</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="P52" s="2">
+        <v>9810018</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>9810018</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -7160,26 +7713,38 @@
       <c r="F53">
         <v>63420717</v>
       </c>
-      <c r="H53" t="s">
+      <c r="G53">
+        <v>66747004</v>
+      </c>
+      <c r="H53">
+        <v>68665330</v>
+      </c>
+      <c r="J53" t="s">
         <v>83</v>
       </c>
-      <c r="I53" s="2">
+      <c r="K53" s="2">
         <v>20919526</v>
       </c>
-      <c r="J53" s="2">
+      <c r="L53" s="2">
         <v>22821757</v>
       </c>
-      <c r="K53" s="2">
+      <c r="M53" s="2">
         <v>18303336</v>
       </c>
-      <c r="L53" s="2">
+      <c r="N53" s="2">
         <v>19965975</v>
       </c>
-      <c r="M53" s="2">
+      <c r="O53" s="2">
         <v>19859520</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="P53" s="2">
+        <v>19257523</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>19507523</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -7198,26 +7763,38 @@
       <c r="F54">
         <v>36273849</v>
       </c>
-      <c r="H54" t="s">
+      <c r="G54">
+        <v>39091308</v>
+      </c>
+      <c r="H54">
+        <v>40213292</v>
+      </c>
+      <c r="J54" t="s">
         <v>84</v>
       </c>
-      <c r="I54" s="2">
+      <c r="K54" s="2">
         <v>580696</v>
       </c>
-      <c r="J54" s="2">
+      <c r="L54" s="2">
         <v>255002</v>
       </c>
-      <c r="K54" s="2">
+      <c r="M54" s="2">
         <v>207762</v>
       </c>
-      <c r="L54" s="2">
+      <c r="N54" s="2">
         <v>330962</v>
       </c>
-      <c r="M54" s="2">
+      <c r="O54" s="2">
         <v>330962</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="P54" s="2">
+        <v>263447</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>263447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -7236,26 +7813,40 @@
       <c r="F55">
         <v>96572712</v>
       </c>
-      <c r="H55" t="s">
+      <c r="G55">
+        <v>151198065</v>
+      </c>
+      <c r="H55">
+        <v>115099741</v>
+      </c>
+      <c r="J55" t="s">
         <v>104</v>
       </c>
-      <c r="I55" s="2">
+      <c r="K55" s="2">
         <v>28820722</v>
       </c>
-      <c r="J55" s="2">
+      <c r="L55" s="2">
         <v>31089612</v>
       </c>
-      <c r="K55" s="2">
+      <c r="M55" s="2">
         <v>25785992</v>
       </c>
-      <c r="L55" s="2">
+      <c r="N55" s="2">
         <v>27856910</v>
       </c>
-      <c r="M55" s="2">
+      <c r="O55" s="2">
         <v>27750455</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="P55" s="2">
+        <f>SUM(P52:P54)</f>
+        <v>29330988</v>
+      </c>
+      <c r="Q55" s="2">
+        <f>SUM(Q52:Q54)</f>
+        <v>29580988</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -7274,13 +7865,19 @@
       <c r="F56">
         <v>24838563</v>
       </c>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
+      <c r="G56">
+        <v>28271481</v>
+      </c>
+      <c r="H56">
+        <v>26964125</v>
+      </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -7299,16 +7896,22 @@
       <c r="F57">
         <v>14628211</v>
       </c>
-      <c r="H57" t="s">
+      <c r="G57">
+        <v>18201442</v>
+      </c>
+      <c r="H57">
+        <v>18391816</v>
+      </c>
+      <c r="J57" t="s">
         <v>85</v>
       </c>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -7327,14 +7930,14 @@
       <c r="F58">
         <v>17577785</v>
       </c>
-      <c r="H58" t="s">
+      <c r="G58">
+        <v>20990466</v>
+      </c>
+      <c r="H58">
+        <v>19588394</v>
+      </c>
+      <c r="J58" t="s">
         <v>86</v>
-      </c>
-      <c r="I58" s="2">
-        <v>500000</v>
-      </c>
-      <c r="J58" s="2">
-        <v>500000</v>
       </c>
       <c r="K58" s="2">
         <v>500000</v>
@@ -7345,8 +7948,20 @@
       <c r="M58" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="2">
+        <v>500000</v>
+      </c>
+      <c r="O58" s="2">
+        <v>500000</v>
+      </c>
+      <c r="P58" s="2">
+        <v>750000</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -7365,26 +7980,38 @@
       <c r="F59">
         <v>4528273</v>
       </c>
-      <c r="H59" t="s">
+      <c r="G59">
+        <v>5525740</v>
+      </c>
+      <c r="H59">
+        <v>5525740</v>
+      </c>
+      <c r="J59" t="s">
         <v>87</v>
       </c>
-      <c r="I59" s="2">
+      <c r="K59" s="2">
         <v>4472629</v>
       </c>
-      <c r="J59" s="2">
+      <c r="L59" s="2">
         <v>3560595</v>
       </c>
-      <c r="K59" s="2">
+      <c r="M59" s="2">
         <v>3743406</v>
       </c>
-      <c r="L59" s="2">
+      <c r="N59" s="2">
         <v>4023406</v>
       </c>
-      <c r="M59" s="2">
+      <c r="O59" s="2">
         <v>4023406</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="P59" s="2">
+        <v>4163406</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>4163406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -7403,26 +8030,38 @@
       <c r="F60">
         <v>50176410</v>
       </c>
-      <c r="H60" t="s">
+      <c r="G60">
+        <v>47343920</v>
+      </c>
+      <c r="H60">
+        <v>45508051</v>
+      </c>
+      <c r="J60" t="s">
         <v>88</v>
       </c>
-      <c r="I60" s="2">
+      <c r="K60" s="2">
         <v>7474062</v>
       </c>
-      <c r="J60" s="2">
+      <c r="L60" s="2">
         <v>6910069</v>
-      </c>
-      <c r="K60" s="2">
-        <v>6461013</v>
-      </c>
-      <c r="L60" s="2">
-        <v>6461013</v>
       </c>
       <c r="M60" s="2">
         <v>6461013</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" s="2">
+        <v>6461013</v>
+      </c>
+      <c r="O60" s="2">
+        <v>6461013</v>
+      </c>
+      <c r="P60" s="2">
+        <v>6461013</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>6461013</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -7441,26 +8080,40 @@
       <c r="F61">
         <v>388289155</v>
       </c>
-      <c r="H61" t="s">
+      <c r="G61">
+        <f>SUM(G42:G60)</f>
+        <v>476396570</v>
+      </c>
+      <c r="H61">
+        <f>SUM(H42:H60)</f>
+        <v>441615097</v>
+      </c>
+      <c r="J61" t="s">
         <v>89</v>
       </c>
-      <c r="I61" s="2">
+      <c r="K61" s="2">
         <v>3616367</v>
       </c>
-      <c r="J61" s="2">
+      <c r="L61" s="2">
         <v>3573407</v>
-      </c>
-      <c r="K61" s="2">
-        <v>3588738</v>
-      </c>
-      <c r="L61" s="2">
-        <v>3588738</v>
       </c>
       <c r="M61" s="2">
         <v>3588738</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" s="2">
+        <v>3588738</v>
+      </c>
+      <c r="O61" s="2">
+        <v>3588738</v>
+      </c>
+      <c r="P61" s="2">
+        <v>3588738</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>3588738</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -7470,26 +8123,32 @@
       <c r="C62">
         <v>25326</v>
       </c>
-      <c r="H62" t="s">
+      <c r="J62" t="s">
         <v>90</v>
       </c>
-      <c r="I62" s="2">
+      <c r="K62" s="2">
         <v>325824</v>
       </c>
-      <c r="J62" s="2">
+      <c r="L62" s="2">
         <v>327822</v>
-      </c>
-      <c r="K62" s="2">
-        <v>225000</v>
-      </c>
-      <c r="L62" s="2">
-        <v>225000</v>
       </c>
       <c r="M62" s="2">
         <v>225000</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" s="2">
+        <v>225000</v>
+      </c>
+      <c r="O62" s="2">
+        <v>225000</v>
+      </c>
+      <c r="P62" s="2">
+        <v>225000</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -7508,26 +8167,38 @@
       <c r="F63">
         <v>-54317462</v>
       </c>
-      <c r="H63" t="s">
+      <c r="G63">
+        <v>-25589992</v>
+      </c>
+      <c r="H63">
+        <v>-25157694</v>
+      </c>
+      <c r="J63" t="s">
         <v>91</v>
       </c>
-      <c r="I63" s="2">
+      <c r="K63" s="2">
         <v>380826</v>
       </c>
-      <c r="J63" s="2">
+      <c r="L63" s="2">
         <v>384216</v>
-      </c>
-      <c r="K63" s="2">
-        <v>382998</v>
-      </c>
-      <c r="L63" s="2">
-        <v>382998</v>
       </c>
       <c r="M63" s="2">
         <v>382998</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" s="2">
+        <v>382998</v>
+      </c>
+      <c r="O63" s="2">
+        <v>382998</v>
+      </c>
+      <c r="P63" s="2">
+        <v>382998</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>382998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -7546,94 +8217,116 @@
       <c r="F64">
         <v>333971693</v>
       </c>
-      <c r="H64" t="s">
+      <c r="G64">
+        <f>SUM(G63,G42:G60)</f>
+        <v>450806578</v>
+      </c>
+      <c r="H64">
+        <f>SUM(H63,H42:H60)</f>
+        <v>416457403</v>
+      </c>
+      <c r="J64" t="s">
         <v>92</v>
       </c>
-      <c r="I64" s="2">
+      <c r="K64" s="2">
         <v>7967786</v>
       </c>
-      <c r="J64" s="2">
+      <c r="L64" s="2">
         <v>8226975</v>
       </c>
-      <c r="K64" s="2">
+      <c r="M64" s="2">
         <v>8316328</v>
       </c>
-      <c r="L64" s="2">
+      <c r="N64" s="2">
         <v>9199194</v>
       </c>
-      <c r="M64" s="2">
+      <c r="O64" s="2">
         <v>9201683</v>
       </c>
-    </row>
-    <row r="65" spans="8:13">
-      <c r="H65" t="s">
+      <c r="P64" s="2">
+        <v>9569988</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>9681972</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J65" t="s">
         <v>104</v>
       </c>
-      <c r="I65" s="2">
+      <c r="K65" s="2">
         <v>24737494</v>
       </c>
-      <c r="J65" s="2">
+      <c r="L65" s="2">
         <v>23483084</v>
       </c>
-      <c r="K65" s="2">
+      <c r="M65" s="2">
         <v>23217483</v>
       </c>
-      <c r="L65" s="2">
+      <c r="N65" s="2">
         <v>24380349</v>
       </c>
-      <c r="M65" s="2">
+      <c r="O65" s="2">
         <v>24382838</v>
       </c>
-    </row>
-    <row r="66" spans="8:13">
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
+      <c r="P65" s="2">
+        <f>SUM(P58:P64)</f>
+        <v>25141143</v>
+      </c>
+      <c r="Q65" s="2">
+        <f>SUM(Q58:Q64)</f>
+        <v>25253127</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17" x14ac:dyDescent="0.2">
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="8:13">
-      <c r="H67" t="s">
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J67" t="s">
         <v>93</v>
       </c>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
-    </row>
-    <row r="68" spans="8:13">
-      <c r="H68" t="s">
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J68" t="s">
         <v>94</v>
       </c>
-      <c r="I68" s="2">
+      <c r="K68" s="2">
         <v>5305154</v>
       </c>
-      <c r="J68" s="2">
+      <c r="L68" s="2">
         <v>8222193</v>
       </c>
-      <c r="K68" s="2">
+      <c r="M68" s="2">
         <v>7731607</v>
       </c>
-      <c r="L68" s="2">
+      <c r="N68" s="2">
         <v>5501269</v>
       </c>
-      <c r="M68" s="2">
+      <c r="O68" s="2">
         <v>5501269</v>
       </c>
-    </row>
-    <row r="69" spans="8:13">
-      <c r="H69" t="s">
+      <c r="P68" s="2">
+        <v>5348269</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>5348269</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J69" t="s">
         <v>95</v>
       </c>
-      <c r="I69" s="2">
+      <c r="K69" s="2">
         <v>1752987</v>
-      </c>
-      <c r="J69" s="2">
-        <v>1695888</v>
-      </c>
-      <c r="K69" s="2">
-        <v>1695888</v>
       </c>
       <c r="L69" s="2">
         <v>1695888</v>
@@ -7641,203 +8334,267 @@
       <c r="M69" s="2">
         <v>1695888</v>
       </c>
-    </row>
-    <row r="70" spans="8:13">
-      <c r="H70" t="s">
+      <c r="N69" s="2">
+        <v>1695888</v>
+      </c>
+      <c r="O69" s="2">
+        <v>1695888</v>
+      </c>
+      <c r="P69" s="2">
+        <v>695000</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>393623</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J70" t="s">
         <v>96</v>
       </c>
-      <c r="I70" s="2">
+      <c r="K70" s="2">
         <v>15488692</v>
       </c>
-      <c r="J70" s="2">
+      <c r="L70" s="2">
         <v>16236039</v>
       </c>
-      <c r="K70" s="2">
+      <c r="M70" s="2">
         <v>16631412</v>
       </c>
-      <c r="L70" s="2">
+      <c r="N70" s="2">
         <v>16904288</v>
       </c>
-      <c r="M70" s="2">
+      <c r="O70" s="2">
         <v>17236634</v>
       </c>
-    </row>
-    <row r="71" spans="8:13">
-      <c r="H71" t="s">
+      <c r="P70" s="2">
+        <v>19020937</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>19369671</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J71" t="s">
         <v>97</v>
       </c>
-      <c r="I71" s="2">
+      <c r="K71" s="2">
         <v>3911005</v>
       </c>
-      <c r="J71" s="2">
+      <c r="L71" s="2">
         <v>3899835</v>
-      </c>
-      <c r="K71" s="2">
-        <v>3900000</v>
-      </c>
-      <c r="L71" s="2">
-        <v>3900000</v>
       </c>
       <c r="M71" s="2">
         <v>3900000</v>
       </c>
-    </row>
-    <row r="72" spans="8:13">
-      <c r="H72" t="s">
+      <c r="N71" s="2">
+        <v>3900000</v>
+      </c>
+      <c r="O71" s="2">
+        <v>3900000</v>
+      </c>
+      <c r="P71" s="2">
+        <v>5500000</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J72" t="s">
         <v>98</v>
       </c>
-      <c r="I72" s="2">
+      <c r="K72" s="2">
         <v>2746208</v>
       </c>
-      <c r="J72" s="2">
+      <c r="L72" s="2">
         <v>2868432</v>
       </c>
-      <c r="K72" s="2">
+      <c r="M72" s="2">
         <v>3172884</v>
       </c>
-      <c r="L72" s="2">
+      <c r="N72" s="2">
         <v>1222988</v>
       </c>
-      <c r="M72" s="2">
+      <c r="O72" s="2">
         <v>1222988</v>
       </c>
-    </row>
-    <row r="73" spans="8:13">
-      <c r="H73" t="s">
+      <c r="P72" s="2">
+        <v>486367</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>486367</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J73" t="s">
         <v>99</v>
       </c>
-      <c r="I73" s="2">
+      <c r="K73" s="2">
         <v>2072410</v>
       </c>
-      <c r="J73" s="2">
+      <c r="L73" s="2">
         <v>6352799</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1000832</v>
-      </c>
-      <c r="L73" s="2">
-        <v>1000832</v>
       </c>
       <c r="M73" s="2">
         <v>1000832</v>
       </c>
-    </row>
-    <row r="74" spans="8:13">
-      <c r="H74" t="s">
+      <c r="N73" s="2">
+        <v>1000832</v>
+      </c>
+      <c r="O73" s="2">
+        <v>1000832</v>
+      </c>
+      <c r="P73" s="2">
+        <v>1000832</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>1000832</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J74" t="s">
         <v>100</v>
       </c>
-      <c r="I74" s="2">
+      <c r="K74" s="2">
         <v>3583097</v>
       </c>
-      <c r="J74" s="2">
+      <c r="L74" s="2">
         <v>4081366</v>
       </c>
-      <c r="K74" s="2">
+      <c r="M74" s="2">
         <v>3603018</v>
       </c>
-      <c r="L74" s="2">
+      <c r="N74" s="2">
         <v>3703018</v>
       </c>
-      <c r="M74" s="2">
+      <c r="O74" s="2">
         <v>3703018</v>
       </c>
-    </row>
-    <row r="75" spans="8:13">
-      <c r="H75" t="s">
+      <c r="P74" s="2">
+        <v>3703018</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>3703018</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J75" t="s">
         <v>93</v>
       </c>
-      <c r="I75" s="2">
+      <c r="K75" s="2">
         <v>5254050</v>
       </c>
-      <c r="J75" s="2">
+      <c r="L75" s="2">
         <v>6405333</v>
       </c>
-      <c r="K75" s="2">
+      <c r="M75" s="2">
         <v>4026059</v>
       </c>
-      <c r="L75" s="2">
+      <c r="N75" s="2">
         <v>4110712</v>
       </c>
-      <c r="M75" s="2">
+      <c r="O75" s="2">
         <v>4176884</v>
       </c>
-    </row>
-    <row r="76" spans="8:13">
-      <c r="H76" t="s">
+      <c r="P75" s="2">
+        <v>4183079</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>4031843</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J76" t="s">
         <v>104</v>
       </c>
-      <c r="I76" s="2">
+      <c r="K76" s="2">
         <v>40113603</v>
       </c>
-      <c r="J76" s="2">
+      <c r="L76" s="2">
         <v>49761885</v>
       </c>
-      <c r="K76" s="2">
+      <c r="M76" s="2">
         <v>41761700</v>
       </c>
-      <c r="L76" s="2">
+      <c r="N76" s="2">
         <v>38038995</v>
       </c>
-      <c r="M76" s="2">
+      <c r="O76" s="2">
         <v>38437513</v>
       </c>
-    </row>
-    <row r="77" spans="8:13">
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
+      <c r="P76" s="2">
+        <f>SUM(P68:P75)</f>
+        <v>39937502</v>
+      </c>
+      <c r="Q76" s="2">
+        <f>SUM(Q68:Q75)</f>
+        <v>39833623</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17" x14ac:dyDescent="0.2">
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
-    </row>
-    <row r="78" spans="8:13">
-      <c r="H78" t="s">
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J78" t="s">
         <v>102</v>
       </c>
-      <c r="I78" s="2">
+      <c r="K78" s="2">
         <v>215057773</v>
       </c>
-      <c r="J78" s="2">
+      <c r="L78" s="2">
         <v>243604205</v>
       </c>
-      <c r="K78" s="2">
+      <c r="M78" s="2">
         <v>212266607</v>
       </c>
-      <c r="L78" s="2">
+      <c r="N78" s="2">
         <v>215849758</v>
       </c>
-      <c r="M78" s="2">
+      <c r="O78" s="2">
         <v>216317096</v>
       </c>
-    </row>
-    <row r="83" spans="8:13">
-      <c r="H83" t="s">
+      <c r="P78" s="2">
+        <f>SUM(P76,P65,P55,P49,P40,P28,P15)</f>
+        <v>230735348</v>
+      </c>
+      <c r="Q78" s="2">
+        <f>SUM(Q76,Q65,Q55,Q49,Q40,Q28,Q15)</f>
+        <v>233957083</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J83" t="s">
         <v>107</v>
       </c>
-      <c r="I83" t="s">
+      <c r="K83" t="s">
         <v>20</v>
       </c>
-      <c r="J83" t="s">
+      <c r="L83" t="s">
         <v>21</v>
       </c>
-      <c r="K83" t="s">
+      <c r="M83" t="s">
         <v>22</v>
       </c>
-      <c r="L83" t="s">
+      <c r="N83" t="s">
         <v>23</v>
       </c>
-      <c r="M83" t="s">
+      <c r="O83" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="84" spans="8:13">
-      <c r="H84" t="s">
+      <c r="P83" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J84" t="s">
         <v>2</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -7848,36 +8605,48 @@
       <c r="M84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="8:13">
-      <c r="H85" t="s">
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J85" t="s">
         <v>3</v>
       </c>
-      <c r="I85">
+      <c r="K85">
         <v>119600</v>
       </c>
-      <c r="J85">
+      <c r="L85">
         <v>140132</v>
       </c>
-      <c r="K85">
+      <c r="M85">
         <v>130027</v>
       </c>
-      <c r="L85">
+      <c r="N85">
         <v>153492</v>
       </c>
-      <c r="M85">
+      <c r="O85">
         <v>156260</v>
       </c>
-    </row>
-    <row r="86" spans="8:13">
-      <c r="H86" t="s">
+      <c r="P85">
+        <v>162800</v>
+      </c>
+      <c r="Q85">
+        <v>166585</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J86" t="s">
         <v>4</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -7888,96 +8657,134 @@
       <c r="M86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="8:13">
-      <c r="H87" t="s">
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J87" t="s">
         <v>5</v>
       </c>
-      <c r="I87">
+      <c r="K87">
         <v>278080</v>
       </c>
-      <c r="J87">
+      <c r="L87">
         <v>272483</v>
       </c>
-      <c r="K87">
+      <c r="M87">
         <v>451961</v>
       </c>
-      <c r="L87">
+      <c r="N87">
         <v>490153</v>
       </c>
-      <c r="M87">
+      <c r="O87">
         <v>494948</v>
       </c>
-    </row>
-    <row r="88" spans="8:13">
-      <c r="H88" t="s">
+      <c r="P87">
+        <f>6637466 - 5883194</f>
+        <v>754272</v>
+      </c>
+      <c r="Q87">
+        <f>6867862-6106514</f>
+        <v>761348</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J88" t="s">
         <v>6</v>
       </c>
-      <c r="I88">
+      <c r="K88">
         <v>1877780</v>
       </c>
-      <c r="J88">
+      <c r="L88">
         <v>1367760</v>
       </c>
-      <c r="K88">
+      <c r="M88">
         <v>2227862</v>
       </c>
-      <c r="L88">
+      <c r="N88">
         <v>2286738</v>
       </c>
-      <c r="M88">
+      <c r="O88">
         <v>2301721</v>
       </c>
-    </row>
-    <row r="89" spans="8:13">
-      <c r="H89" t="s">
+      <c r="P88">
+        <f>5626805-2691403</f>
+        <v>2935402</v>
+      </c>
+      <c r="Q88">
+        <f>5501089-2560121</f>
+        <v>2940968</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J89" t="s">
         <v>7</v>
       </c>
-      <c r="I89">
+      <c r="K89">
         <v>3771757</v>
       </c>
-      <c r="J89">
+      <c r="L89">
         <v>3383853</v>
       </c>
-      <c r="K89">
+      <c r="M89">
         <v>3453425</v>
       </c>
-      <c r="L89">
+      <c r="N89">
         <v>3511390</v>
       </c>
-      <c r="M89">
+      <c r="O89">
         <v>3542616</v>
       </c>
-    </row>
-    <row r="90" spans="8:13">
-      <c r="H90" t="s">
+      <c r="P89">
+        <f>16291888-5770103</f>
+        <v>10521785</v>
+      </c>
+      <c r="Q89">
+        <f>17243481-6232527</f>
+        <v>11010954</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J90" t="s">
         <v>8</v>
       </c>
-      <c r="I90">
+      <c r="K90">
         <v>1229537</v>
       </c>
-      <c r="J90">
+      <c r="L90">
         <v>1696419</v>
       </c>
-      <c r="K90">
+      <c r="M90">
         <v>1719633</v>
       </c>
-      <c r="L90">
+      <c r="N90">
         <v>1776141</v>
       </c>
-      <c r="M90">
+      <c r="O90">
         <v>1784092</v>
       </c>
-    </row>
-    <row r="91" spans="8:13">
-      <c r="H91" t="s">
+      <c r="P90">
+        <f>4343771 - 2398356</f>
+        <v>1945415</v>
+      </c>
+      <c r="Q90">
+        <f>4418951-2453702</f>
+        <v>1965249</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J91" t="s">
         <v>9</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -7988,216 +8795,300 @@
       <c r="M91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="8:13">
-      <c r="H92" t="s">
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J92" t="s">
         <v>10</v>
       </c>
-      <c r="I92">
+      <c r="K92">
         <v>1657626</v>
       </c>
-      <c r="J92">
+      <c r="L92">
         <v>1601974</v>
       </c>
-      <c r="K92">
+      <c r="M92">
         <v>1878587</v>
       </c>
-      <c r="L92">
+      <c r="N92">
         <v>1886893</v>
       </c>
-      <c r="M92">
+      <c r="O92">
         <v>1907626</v>
       </c>
-    </row>
-    <row r="93" spans="8:13">
-      <c r="H93" t="s">
+      <c r="P92">
+        <f>7727093-5756160</f>
+        <v>1970933</v>
+      </c>
+      <c r="Q92">
+        <f>7743231-5741525</f>
+        <v>2001706</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J93" t="s">
         <v>11</v>
       </c>
-      <c r="I93">
+      <c r="K93">
         <v>1077991</v>
       </c>
-      <c r="J93">
+      <c r="L93">
         <v>1198629</v>
       </c>
-      <c r="K93">
+      <c r="M93">
         <v>1333418</v>
       </c>
-      <c r="L93">
+      <c r="N93">
         <v>1400864</v>
       </c>
-      <c r="M93">
+      <c r="O93">
         <v>1423561</v>
       </c>
-    </row>
-    <row r="94" spans="8:13">
-      <c r="H94" t="s">
+      <c r="P93">
+        <f>3810616-1977674</f>
+        <v>1832942</v>
+      </c>
+      <c r="Q93">
+        <f>3900907-2024979</f>
+        <v>1875928</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J94" t="s">
         <v>12</v>
       </c>
-      <c r="I94">
+      <c r="K94">
         <v>22732453</v>
       </c>
-      <c r="J94">
+      <c r="L94">
         <v>22956307</v>
       </c>
-      <c r="K94">
+      <c r="M94">
         <v>25490291</v>
       </c>
-      <c r="L94">
+      <c r="N94">
         <v>28954380</v>
       </c>
-      <c r="M94">
+      <c r="O94">
         <v>27580827</v>
       </c>
-    </row>
-    <row r="95" spans="8:13">
-      <c r="H95" t="s">
+      <c r="P94">
+        <f>47355255 - 15049190</f>
+        <v>32306065</v>
+      </c>
+      <c r="Q94">
+        <f>48602035 - 14946689</f>
+        <v>33655346</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J95" t="s">
         <v>13</v>
       </c>
-      <c r="I95">
+      <c r="K95">
         <v>2718030</v>
       </c>
-      <c r="J95">
+      <c r="L95">
         <v>3863903</v>
       </c>
-      <c r="K95">
+      <c r="M95">
         <v>4613303</v>
       </c>
-      <c r="L95">
+      <c r="N95">
         <v>4986922</v>
       </c>
-      <c r="M95">
+      <c r="O95">
         <v>5051999</v>
       </c>
-    </row>
-    <row r="96" spans="8:13">
-      <c r="H96" t="s">
+      <c r="P95">
+        <f>66747004 - 61378677</f>
+        <v>5368327</v>
+      </c>
+      <c r="Q95">
+        <f>68665330 - 63187683</f>
+        <v>5477647</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J96" t="s">
         <v>14</v>
       </c>
-      <c r="I96">
+      <c r="K96">
         <v>5839425</v>
       </c>
-      <c r="J96">
+      <c r="L96">
         <v>5851217</v>
       </c>
-      <c r="K96">
+      <c r="M96">
         <v>7056428</v>
       </c>
-      <c r="L96">
+      <c r="N96">
         <v>7527406</v>
       </c>
-      <c r="M96">
+      <c r="O96">
         <v>7581542</v>
       </c>
-    </row>
-    <row r="97" spans="8:13">
-      <c r="H97" t="s">
+      <c r="P96">
+        <f>39091308-30984535</f>
+        <v>8106773</v>
+      </c>
+      <c r="Q96">
+        <f>40213292-31985365</f>
+        <v>8227927</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J97" t="s">
         <v>15</v>
       </c>
-      <c r="I97">
+      <c r="K97">
         <v>90011682</v>
       </c>
-      <c r="J97">
+      <c r="L97">
         <v>87384742</v>
       </c>
-      <c r="K97">
+      <c r="M97">
         <v>92642275</v>
       </c>
-      <c r="L97">
+      <c r="N97">
         <v>97542225</v>
       </c>
-      <c r="M97">
+      <c r="O97">
         <v>93875848</v>
       </c>
-    </row>
-    <row r="98" spans="8:13">
-      <c r="H98" t="s">
+      <c r="P97">
+        <f>151198065-3276300</f>
+        <v>147921765</v>
+      </c>
+      <c r="Q97">
+        <f>115099741-317370</f>
+        <v>114782371</v>
+      </c>
+    </row>
+    <row r="98" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J98" t="s">
         <v>16</v>
       </c>
-      <c r="I98">
+      <c r="K98">
         <v>18937891</v>
       </c>
-      <c r="J98">
+      <c r="L98">
         <v>18419202</v>
       </c>
-      <c r="K98">
+      <c r="M98">
         <v>17962391</v>
       </c>
-      <c r="L98">
+      <c r="N98">
         <v>19565560</v>
       </c>
-      <c r="M98">
+      <c r="O98">
         <v>19223958</v>
       </c>
-    </row>
-    <row r="99" spans="8:13">
-      <c r="H99" t="s">
+      <c r="P98">
+        <f>28271481-5389002</f>
+        <v>22882479</v>
+      </c>
+      <c r="Q98">
+        <f>26964125-5741567</f>
+        <v>21222558</v>
+      </c>
+    </row>
+    <row r="99" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J99" t="s">
         <v>17</v>
       </c>
-      <c r="I99">
+      <c r="K99">
         <v>9661327</v>
       </c>
-      <c r="J99">
+      <c r="L99">
         <v>10851361</v>
       </c>
-      <c r="K99">
+      <c r="M99">
         <v>11417342</v>
       </c>
-      <c r="L99">
+      <c r="N99">
         <v>12757697</v>
       </c>
-      <c r="M99">
+      <c r="O99">
         <v>12920482</v>
       </c>
-    </row>
-    <row r="100" spans="8:13">
-      <c r="H100" t="s">
+      <c r="P99">
+        <f>18201442-1923055</f>
+        <v>16278387</v>
+      </c>
+      <c r="Q99">
+        <f>18391816 - 1939915</f>
+        <v>16451901</v>
+      </c>
+    </row>
+    <row r="100" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J100" t="s">
         <v>96</v>
       </c>
-      <c r="I100">
+      <c r="K100">
         <v>23743956</v>
       </c>
-      <c r="J100">
+      <c r="L100">
         <v>20326538</v>
       </c>
-      <c r="K100">
+      <c r="M100">
         <v>19094157</v>
       </c>
-      <c r="L100">
+      <c r="N100">
         <v>18908184</v>
       </c>
-      <c r="M100">
+      <c r="O100">
         <v>17577785</v>
       </c>
-    </row>
-    <row r="101" spans="8:13">
-      <c r="H101" t="s">
+      <c r="P100">
+        <f>20990466 - 20159016</f>
+        <v>831450</v>
+      </c>
+      <c r="Q100">
+        <f>19588394-19305833</f>
+        <v>282561</v>
+      </c>
+    </row>
+    <row r="101" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J101" t="s">
         <v>97</v>
       </c>
-      <c r="I101">
+      <c r="K101">
         <v>3985087</v>
       </c>
-      <c r="J101">
+      <c r="L101">
         <v>3826758</v>
       </c>
-      <c r="K101">
+      <c r="M101">
         <v>4245000</v>
       </c>
-      <c r="L101">
+      <c r="N101">
         <v>4476410</v>
       </c>
-      <c r="M101">
+      <c r="O101">
         <v>4528273</v>
       </c>
-    </row>
-    <row r="102" spans="8:13">
-      <c r="H102" t="s">
+      <c r="P101">
+        <v>5525740</v>
+      </c>
+      <c r="Q101">
+        <v>5525740</v>
+      </c>
+    </row>
+    <row r="102" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J102" t="s">
         <v>18</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -8208,90 +9099,132 @@
       <c r="M102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="8:13">
-      <c r="H103" t="s">
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J103" t="s">
         <v>19</v>
       </c>
-      <c r="I103">
+      <c r="K103">
         <v>41825076</v>
       </c>
-      <c r="J103">
+      <c r="L103">
         <v>29838712</v>
       </c>
-      <c r="K103">
+      <c r="M103">
         <v>32139517</v>
       </c>
-      <c r="L103">
+      <c r="N103">
         <v>32435139</v>
       </c>
-      <c r="M103">
+      <c r="O103">
         <v>31709537</v>
       </c>
-    </row>
-    <row r="104" spans="8:13">
-      <c r="H104" t="s">
+      <c r="P103">
+        <f>47343920 - 23042703</f>
+        <v>24301217</v>
+      </c>
+      <c r="Q103">
+        <f>45508051-21861828</f>
+        <v>23646223</v>
+      </c>
+    </row>
+    <row r="104" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J104" t="s">
         <v>104</v>
       </c>
-      <c r="I104">
+      <c r="K104">
         <v>229467298</v>
       </c>
-      <c r="J104">
+      <c r="L104">
         <v>212979990</v>
       </c>
-      <c r="K104">
+      <c r="M104">
         <v>225855617</v>
       </c>
-      <c r="L104">
+      <c r="N104">
         <v>238659594</v>
       </c>
-      <c r="M104">
+      <c r="O104">
         <v>231661075</v>
       </c>
-    </row>
-    <row r="105" spans="8:13">
-      <c r="H105" t="s">
+      <c r="P104">
+        <f>SUM(P84:P103)</f>
+        <v>283645752</v>
+      </c>
+      <c r="Q104">
+        <f>SUM(Q84:Q103)</f>
+        <v>249995012</v>
+      </c>
+    </row>
+    <row r="105" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J105" t="s">
         <v>108</v>
       </c>
-      <c r="I105">
+      <c r="K105">
         <v>138374</v>
       </c>
-      <c r="J105">
+      <c r="L105">
         <v>25326</v>
       </c>
     </row>
-    <row r="106" spans="8:13">
-      <c r="H106" t="s">
+    <row r="106" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J106" t="s">
         <v>105</v>
       </c>
-      <c r="K106">
+      <c r="M106">
         <v>-52331726</v>
       </c>
-      <c r="L106">
+      <c r="N106">
         <v>-55258672</v>
       </c>
-      <c r="M106">
+      <c r="O106">
         <v>-54317462</v>
       </c>
-    </row>
-    <row r="107" spans="8:13">
-      <c r="H107" t="s">
+      <c r="P106">
+        <v>-25589992</v>
+      </c>
+      <c r="Q106">
+        <v>-25157694</v>
+      </c>
+    </row>
+    <row r="107" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J107" t="s">
         <v>106</v>
       </c>
-      <c r="I107">
+      <c r="K107">
         <v>229467298</v>
       </c>
-      <c r="J107">
+      <c r="L107">
         <v>212979990</v>
       </c>
-      <c r="K107">
+      <c r="M107">
         <v>173523891</v>
       </c>
-      <c r="L107">
+      <c r="N107">
         <v>183400922</v>
       </c>
-      <c r="M107">
+      <c r="O107">
         <v>177343613</v>
+      </c>
+      <c r="P107">
+        <f>SUM(P106,P104)</f>
+        <v>258055760</v>
+      </c>
+      <c r="Q107">
+        <f>SUM(Q106,Q104)</f>
+        <v>224837318</v>
       </c>
     </row>
   </sheetData>

--- a/Budget data/Berkeley Budget.xlsx
+++ b/Budget data/Berkeley Budget.xlsx
@@ -1286,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1301,7 +1301,7 @@
     <col min="16" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1326,32 +1326,8 @@
       <c r="H1" t="s">
         <v>110</v>
       </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1376,16 +1352,8 @@
       <c r="H2">
         <v>50768165</v>
       </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1410,32 +1378,8 @@
       <c r="H3">
         <v>12500000</v>
       </c>
-      <c r="J3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="1">
-        <v>984051</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1032227</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1052122</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1070929</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1092347</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1209625</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1233817</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1460,32 +1404,8 @@
       <c r="H4">
         <v>2809200</v>
       </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3110933</v>
-      </c>
-      <c r="L4" s="1">
-        <v>3226626</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2844356</v>
-      </c>
-      <c r="N4" s="1">
-        <v>3050030</v>
-      </c>
-      <c r="O4" s="1">
-        <v>3191390</v>
-      </c>
-      <c r="P4" s="1">
-        <v>3417084</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>3475415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1510,32 +1430,8 @@
       <c r="H5">
         <v>18522000</v>
       </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="1">
-        <v>9542084</v>
-      </c>
-      <c r="L5" s="1">
-        <v>9762684</v>
-      </c>
-      <c r="M5" s="1">
-        <v>9948439</v>
-      </c>
-      <c r="N5" s="1">
-        <v>11826449</v>
-      </c>
-      <c r="O5" s="1">
-        <v>12027328</v>
-      </c>
-      <c r="P5" s="1">
-        <v>12816390</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>13081657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1560,32 +1456,8 @@
       <c r="H6">
         <v>18727959</v>
       </c>
-      <c r="J6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="1">
-        <v>969769</v>
-      </c>
-      <c r="L6" s="1">
-        <v>947947</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1005000</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1005000</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1005000</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1250000</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1250000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1610,32 +1482,8 @@
       <c r="H7">
         <v>8089178</v>
       </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="1">
-        <v>3917791</v>
-      </c>
-      <c r="L7" s="1">
-        <v>4130013</v>
-      </c>
-      <c r="M7" s="1">
-        <v>4186198</v>
-      </c>
-      <c r="N7" s="1">
-        <v>4256305</v>
-      </c>
-      <c r="O7" s="1">
-        <v>4341432</v>
-      </c>
-      <c r="P7" s="1">
-        <v>4812892</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>4909150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1660,32 +1508,8 @@
       <c r="H8">
         <v>14496610</v>
       </c>
-      <c r="J8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2052466</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2065845</v>
-      </c>
-      <c r="M8" s="1">
-        <v>2023244</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1866961</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1866961</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1352432</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1410489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1710,32 +1534,8 @@
       <c r="H9">
         <v>10475208</v>
       </c>
-      <c r="J9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="1">
-        <v>52888</v>
-      </c>
-      <c r="L9" s="1">
-        <v>28164</v>
-      </c>
-      <c r="M9" s="1">
-        <v>35000</v>
-      </c>
-      <c r="N9" s="1">
-        <v>35000</v>
-      </c>
-      <c r="O9" s="1">
-        <v>35000</v>
-      </c>
-      <c r="P9" s="1">
-        <v>35000</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1760,32 +1560,8 @@
       <c r="H10">
         <v>6600871</v>
       </c>
-      <c r="J10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="1">
-        <v>4613</v>
-      </c>
-      <c r="L10" s="1">
-        <v>10</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1810,32 +1586,8 @@
       <c r="H11">
         <v>243367</v>
       </c>
-      <c r="J11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="1">
-        <v>226933</v>
-      </c>
-      <c r="L11" s="1">
-        <v>226450</v>
-      </c>
-      <c r="M11" s="1">
-        <v>263000</v>
-      </c>
-      <c r="N11" s="1">
-        <v>263000</v>
-      </c>
-      <c r="O11" s="1">
-        <v>263000</v>
-      </c>
-      <c r="P11" s="1">
-        <v>489000</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>489000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1860,32 +1612,8 @@
       <c r="H12">
         <v>2244165</v>
       </c>
-      <c r="J12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="1">
-        <v>165672</v>
-      </c>
-      <c r="L12" s="1">
-        <v>164558</v>
-      </c>
-      <c r="M12" s="1">
-        <v>168550</v>
-      </c>
-      <c r="N12" s="1">
-        <v>168550</v>
-      </c>
-      <c r="O12" s="1">
-        <v>168550</v>
-      </c>
-      <c r="P12" s="1">
-        <v>174011</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>174011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1912,32 +1640,8 @@
         <f>4913194 + 1984644</f>
         <v>6897838</v>
       </c>
-      <c r="J13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>488864</v>
-      </c>
-      <c r="M13" s="1">
-        <v>496424</v>
-      </c>
-      <c r="N13" s="1">
-        <v>546823</v>
-      </c>
-      <c r="O13" s="1">
-        <v>557759</v>
-      </c>
-      <c r="P13" s="1">
-        <v>664136</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>674098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1964,32 +1668,8 @@
         <f>SUM(H2:H13)</f>
         <v>152374561</v>
       </c>
-      <c r="J14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>30000</v>
-      </c>
-      <c r="N14" s="1">
-        <v>30000</v>
-      </c>
-      <c r="O14" s="1">
-        <v>30000</v>
-      </c>
-      <c r="P14" s="1">
-        <v>30000</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2014,34 +1694,8 @@
       <c r="H15">
         <v>11114390</v>
       </c>
-      <c r="J15" t="s">
-        <v>104</v>
-      </c>
-      <c r="K15" s="1">
-        <v>21027200</v>
-      </c>
-      <c r="L15" s="1">
-        <v>22073388</v>
-      </c>
-      <c r="M15" s="1">
-        <v>22052333</v>
-      </c>
-      <c r="N15" s="1">
-        <v>24119047</v>
-      </c>
-      <c r="O15" s="1">
-        <v>24578767</v>
-      </c>
-      <c r="P15" s="1">
-        <f>SUM(P3:P14)</f>
-        <v>26250570</v>
-      </c>
-      <c r="Q15" s="1">
-        <f>SUM(Q3:Q14)</f>
-        <v>26762637</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2069,49 +1723,8 @@
         <f>SUM(H15,H2:H13)</f>
         <v>163488951</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="J17" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="J18" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18" s="1">
-        <v>33861186</v>
-      </c>
-      <c r="L18" s="1">
-        <v>34101574</v>
-      </c>
-      <c r="M18" s="1">
-        <v>36673523</v>
-      </c>
-      <c r="N18" s="1">
-        <v>37600783</v>
-      </c>
-      <c r="O18" s="1">
-        <v>37710238</v>
-      </c>
-      <c r="P18" s="1">
-        <v>40453300</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>41242753</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -2136,32 +1749,8 @@
       <c r="H19" t="s">
         <v>110</v>
       </c>
-      <c r="J19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="1">
-        <v>5230735</v>
-      </c>
-      <c r="L19" s="1">
-        <v>5478724</v>
-      </c>
-      <c r="M19" s="1">
-        <v>5558716</v>
-      </c>
-      <c r="N19" s="1">
-        <v>5311066</v>
-      </c>
-      <c r="O19" s="1">
-        <v>5311066</v>
-      </c>
-      <c r="P19" s="1">
-        <v>6245459</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>6270459</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2186,32 +1775,8 @@
       <c r="H20">
         <v>2074738</v>
       </c>
-      <c r="J20" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="1">
-        <v>13315067</v>
-      </c>
-      <c r="L20" s="1">
-        <v>13588024</v>
-      </c>
-      <c r="M20" s="1">
-        <v>12801227</v>
-      </c>
-      <c r="N20" s="1">
-        <v>12801227</v>
-      </c>
-      <c r="O20" s="1">
-        <v>12801227</v>
-      </c>
-      <c r="P20" s="1">
-        <v>21384982</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>22827768</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2236,32 +1801,8 @@
       <c r="H21">
         <v>2304413</v>
       </c>
-      <c r="J21" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="1">
-        <v>2467033</v>
-      </c>
-      <c r="L21" s="1">
-        <v>2316216</v>
-      </c>
-      <c r="M21" s="1">
-        <v>2365140</v>
-      </c>
-      <c r="N21" s="1">
-        <v>2502740</v>
-      </c>
-      <c r="O21" s="1">
-        <v>2510569</v>
-      </c>
-      <c r="P21" s="1">
-        <v>2388633</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>2369937</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2286,32 +1827,8 @@
       <c r="H22">
         <v>738060</v>
       </c>
-      <c r="J22" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22" s="1">
-        <v>577473</v>
-      </c>
-      <c r="L22" s="1">
-        <v>245868</v>
-      </c>
-      <c r="M22" s="1">
-        <v>240501</v>
-      </c>
-      <c r="N22" s="1">
-        <v>240501</v>
-      </c>
-      <c r="O22" s="1">
-        <v>240501</v>
-      </c>
-      <c r="P22" s="1">
-        <v>240501</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>240501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2336,32 +1853,8 @@
       <c r="H23">
         <v>6106514</v>
       </c>
-      <c r="J23" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23" s="1">
-        <v>9249750</v>
-      </c>
-      <c r="L23" s="1">
-        <v>14087031</v>
-      </c>
-      <c r="M23" s="1">
-        <v>13552248</v>
-      </c>
-      <c r="N23" s="1">
-        <v>12238260</v>
-      </c>
-      <c r="O23" s="1">
-        <v>12544854</v>
-      </c>
-      <c r="P23" s="1">
-        <v>14528343</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>15003859</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -2386,32 +1879,8 @@
       <c r="H24">
         <v>2560121</v>
       </c>
-      <c r="J24" t="s">
-        <v>61</v>
-      </c>
-      <c r="K24" s="1">
-        <v>3781582</v>
-      </c>
-      <c r="L24" s="1">
-        <v>3858118</v>
-      </c>
-      <c r="M24" s="1">
-        <v>3743972</v>
-      </c>
-      <c r="N24" s="1">
-        <v>4204428</v>
-      </c>
-      <c r="O24" s="1">
-        <v>3504428</v>
-      </c>
-      <c r="P24" s="1">
-        <v>3496428</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>3496428</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2436,32 +1905,8 @@
       <c r="H25">
         <v>6232527</v>
       </c>
-      <c r="J25" t="s">
-        <v>62</v>
-      </c>
-      <c r="K25" s="1">
-        <v>6496735</v>
-      </c>
-      <c r="L25" s="1">
-        <v>8052253</v>
-      </c>
-      <c r="M25" s="1">
-        <v>6861311</v>
-      </c>
-      <c r="N25" s="1">
-        <v>9191713</v>
-      </c>
-      <c r="O25" s="1">
-        <v>9191713</v>
-      </c>
-      <c r="P25" s="1">
-        <v>9191713</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>9191713</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2486,32 +1931,8 @@
       <c r="H26">
         <v>2453702</v>
       </c>
-      <c r="J26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" s="1">
-        <v>835264</v>
-      </c>
-      <c r="L26" s="1">
-        <v>792597</v>
-      </c>
-      <c r="M26" s="1">
-        <v>864531</v>
-      </c>
-      <c r="N26" s="1">
-        <v>851868</v>
-      </c>
-      <c r="O26" s="1">
-        <v>851868</v>
-      </c>
-      <c r="P26" s="1">
-        <v>792500</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>780500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2536,32 +1957,8 @@
       <c r="H27">
         <v>2097256</v>
       </c>
-      <c r="J27" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" s="1">
-        <v>2632711</v>
-      </c>
-      <c r="L27" s="1">
-        <v>2237128</v>
-      </c>
-      <c r="M27" s="1">
-        <v>2193961</v>
-      </c>
-      <c r="N27" s="1">
-        <v>2086780</v>
-      </c>
-      <c r="O27" s="1">
-        <v>2111455</v>
-      </c>
-      <c r="P27" s="1">
-        <v>3043752</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>3056813</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2586,34 +1983,8 @@
       <c r="H28">
         <v>5741525</v>
       </c>
-      <c r="J28" t="s">
-        <v>104</v>
-      </c>
-      <c r="K28" s="1">
-        <v>78447536</v>
-      </c>
-      <c r="L28" s="1">
-        <v>84757533</v>
-      </c>
-      <c r="M28" s="1">
-        <v>84855130</v>
-      </c>
-      <c r="N28" s="1">
-        <v>87029366</v>
-      </c>
-      <c r="O28" s="1">
-        <v>86777919</v>
-      </c>
-      <c r="P28" s="1">
-        <f>SUM(P18:P27)</f>
-        <v>101765611</v>
-      </c>
-      <c r="Q28" s="1">
-        <f>SUM(Q18:Q27)</f>
-        <v>104480731</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -2638,13 +2009,8 @@
       <c r="H29">
         <v>2024979</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2669,32 +2035,8 @@
       <c r="H30">
         <v>14946689</v>
       </c>
-      <c r="J30" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30" s="1">
-        <v>7360154</v>
-      </c>
-      <c r="L30" s="1">
-        <v>6713733</v>
-      </c>
-      <c r="M30" s="1">
-        <v>6161504</v>
-      </c>
-      <c r="N30" s="1">
-        <v>6042504</v>
-      </c>
-      <c r="O30" s="1">
-        <v>6042504</v>
-      </c>
-      <c r="P30" s="1">
-        <v>9197989</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>9376698</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2719,13 +2061,8 @@
       <c r="H31">
         <v>63187683</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -2750,16 +2087,8 @@
       <c r="H32">
         <v>31985365</v>
       </c>
-      <c r="J32" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -2784,32 +2113,8 @@
       <c r="H33">
         <v>3317370</v>
       </c>
-      <c r="J33" t="s">
-        <v>67</v>
-      </c>
-      <c r="K33" s="1">
-        <v>17486</v>
-      </c>
-      <c r="L33" s="1">
-        <v>2639</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P33" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -2834,32 +2139,8 @@
       <c r="H34">
         <v>5741567</v>
       </c>
-      <c r="J34" t="s">
-        <v>68</v>
-      </c>
-      <c r="K34" s="1">
-        <v>3253</v>
-      </c>
-      <c r="L34" s="1">
-        <v>1032</v>
-      </c>
-      <c r="M34" s="1">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P34" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -2884,32 +2165,8 @@
       <c r="H35">
         <v>1939915</v>
       </c>
-      <c r="J35" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
-      <c r="L35" s="1">
-        <v>14975000</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -2934,32 +2191,8 @@
       <c r="H36">
         <v>6595869</v>
       </c>
-      <c r="J36" t="s">
-        <v>70</v>
-      </c>
-      <c r="K36" s="1">
-        <v>952</v>
-      </c>
-      <c r="L36" s="1">
-        <v>292</v>
-      </c>
-      <c r="M36" s="1">
-        <v>0</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -2984,32 +2217,8 @@
       <c r="H37">
         <v>15265959</v>
       </c>
-      <c r="J37" t="s">
-        <v>71</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1">
-        <v>103336</v>
-      </c>
-      <c r="N37" s="1">
-        <v>103336</v>
-      </c>
-      <c r="O37" s="1">
-        <v>103336</v>
-      </c>
-      <c r="P37" s="1">
-        <v>103336</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>103336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -3036,80 +2245,8 @@
         <f>SUM(H20:H37)</f>
         <v>175314252</v>
       </c>
-      <c r="J38" t="s">
-        <v>72</v>
-      </c>
-      <c r="K38" s="1">
-        <v>100002</v>
-      </c>
-      <c r="L38" s="1">
-        <v>100000</v>
-      </c>
-      <c r="M38" s="1">
-        <v>100000</v>
-      </c>
-      <c r="N38" s="1">
-        <v>100000</v>
-      </c>
-      <c r="O38" s="1">
-        <v>100000</v>
-      </c>
-      <c r="P38" s="1">
-        <v>100000</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="J39" t="s">
-        <v>73</v>
-      </c>
-      <c r="K39" s="1">
-        <v>13</v>
-      </c>
-      <c r="L39" s="1">
-        <v>4</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="J40" t="s">
-        <v>104</v>
-      </c>
-      <c r="K40" s="1">
-        <v>121706</v>
-      </c>
-      <c r="L40" s="1">
-        <v>15078967</v>
-      </c>
-      <c r="M40" s="1">
-        <v>203336</v>
-      </c>
-      <c r="N40" s="1">
-        <v>203336</v>
-      </c>
-      <c r="O40" s="1">
-        <v>203336</v>
-      </c>
-      <c r="P40" s="1">
-        <f>SUM(P37:P38)</f>
-        <v>203336</v>
-      </c>
-      <c r="Q40" s="1">
-        <f>SUM(Q37:Q38)</f>
-        <v>203336</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -3134,13 +2271,8 @@
       <c r="H41" t="s">
         <v>110</v>
       </c>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -3165,16 +2297,8 @@
       <c r="H42">
         <v>2074738</v>
       </c>
-      <c r="J42" t="s">
-        <v>74</v>
-      </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -3199,32 +2323,8 @@
       <c r="H43">
         <v>2470998</v>
       </c>
-      <c r="J43" t="s">
-        <v>75</v>
-      </c>
-      <c r="K43" s="1">
-        <v>473295</v>
-      </c>
-      <c r="L43" s="1">
-        <v>473287</v>
-      </c>
-      <c r="M43" s="1">
-        <v>376750</v>
-      </c>
-      <c r="N43" s="1">
-        <v>335750</v>
-      </c>
-      <c r="O43" s="1">
-        <v>296000</v>
-      </c>
-      <c r="P43" s="1">
-        <v>262500</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3249,32 +2349,8 @@
       <c r="H44">
         <v>738060</v>
       </c>
-      <c r="J44" t="s">
-        <v>76</v>
-      </c>
-      <c r="K44" s="1">
-        <v>1654837</v>
-      </c>
-      <c r="L44" s="1">
-        <v>1752087</v>
-      </c>
-      <c r="M44" s="1">
-        <v>1604969</v>
-      </c>
-      <c r="N44" s="1">
-        <v>1604969</v>
-      </c>
-      <c r="O44" s="1">
-        <v>1604969</v>
-      </c>
-      <c r="P44" s="1">
-        <v>1604969</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>1604969</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -3299,32 +2375,8 @@
       <c r="H45">
         <v>6867862</v>
       </c>
-      <c r="J45" t="s">
-        <v>77</v>
-      </c>
-      <c r="K45" s="1">
-        <v>5829505</v>
-      </c>
-      <c r="L45" s="1">
-        <v>456963</v>
-      </c>
-      <c r="M45" s="1">
-        <v>500317</v>
-      </c>
-      <c r="N45" s="1">
-        <v>500645</v>
-      </c>
-      <c r="O45" s="1">
-        <v>499333</v>
-      </c>
-      <c r="P45" s="1">
-        <v>499942</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>498935</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -3349,32 +2401,8 @@
       <c r="H46">
         <v>5501089</v>
       </c>
-      <c r="J46" t="s">
-        <v>78</v>
-      </c>
-      <c r="K46" s="1">
-        <v>992638</v>
-      </c>
-      <c r="L46" s="1">
-        <v>991639</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P46" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -3399,32 +2427,8 @@
       <c r="H47">
         <v>17243481</v>
       </c>
-      <c r="J47" t="s">
-        <v>79</v>
-      </c>
-      <c r="K47" s="1">
-        <v>1505385</v>
-      </c>
-      <c r="L47" s="1">
-        <v>1650360</v>
-      </c>
-      <c r="M47" s="1">
-        <v>1463321</v>
-      </c>
-      <c r="N47" s="1">
-        <v>1463321</v>
-      </c>
-      <c r="O47" s="1">
-        <v>1463321</v>
-      </c>
-      <c r="P47" s="1">
-        <v>1463321</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>1463321</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -3449,32 +2453,8 @@
       <c r="H48">
         <v>4418951</v>
       </c>
-      <c r="J48" t="s">
-        <v>80</v>
-      </c>
-      <c r="K48" s="1">
-        <v>3973698</v>
-      </c>
-      <c r="L48" s="1">
-        <v>5321667</v>
-      </c>
-      <c r="M48" s="1">
-        <v>4283772</v>
-      </c>
-      <c r="N48" s="1">
-        <v>4274566</v>
-      </c>
-      <c r="O48" s="1">
-        <v>4280141</v>
-      </c>
-      <c r="P48" s="1">
-        <v>4275466</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>4275416</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -3499,34 +2479,8 @@
       <c r="H49">
         <v>2097256</v>
       </c>
-      <c r="J49" t="s">
-        <v>104</v>
-      </c>
-      <c r="K49" s="1">
-        <v>14429358</v>
-      </c>
-      <c r="L49" s="1">
-        <v>10646003</v>
-      </c>
-      <c r="M49" s="1">
-        <v>8229129</v>
-      </c>
-      <c r="N49" s="1">
-        <v>8179251</v>
-      </c>
-      <c r="O49" s="1">
-        <v>8143764</v>
-      </c>
-      <c r="P49" s="1">
-        <f>SUM(P43:P48)</f>
-        <v>8106198</v>
-      </c>
-      <c r="Q49" s="1">
-        <f>SUM(Q43:Q48)</f>
-        <v>7842641</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -3551,13 +2505,8 @@
       <c r="H50">
         <v>7743231</v>
       </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -3582,16 +2531,8 @@
       <c r="H51">
         <v>3900907</v>
       </c>
-      <c r="J51" t="s">
-        <v>81</v>
-      </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -3616,32 +2557,8 @@
       <c r="H52">
         <v>48602035</v>
       </c>
-      <c r="J52" t="s">
-        <v>82</v>
-      </c>
-      <c r="K52" s="1">
-        <v>7320500</v>
-      </c>
-      <c r="L52" s="1">
-        <v>8012853</v>
-      </c>
-      <c r="M52" s="1">
-        <v>7274894</v>
-      </c>
-      <c r="N52" s="1">
-        <v>7559973</v>
-      </c>
-      <c r="O52" s="1">
-        <v>7559973</v>
-      </c>
-      <c r="P52" s="1">
-        <v>9810018</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>9810018</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -3666,32 +2583,8 @@
       <c r="H53">
         <v>68665330</v>
       </c>
-      <c r="J53" t="s">
-        <v>83</v>
-      </c>
-      <c r="K53" s="1">
-        <v>20919526</v>
-      </c>
-      <c r="L53" s="1">
-        <v>22821757</v>
-      </c>
-      <c r="M53" s="1">
-        <v>18303336</v>
-      </c>
-      <c r="N53" s="1">
-        <v>19965975</v>
-      </c>
-      <c r="O53" s="1">
-        <v>19859520</v>
-      </c>
-      <c r="P53" s="1">
-        <v>19257523</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>19507523</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -3716,32 +2609,8 @@
       <c r="H54">
         <v>40213292</v>
       </c>
-      <c r="J54" t="s">
-        <v>84</v>
-      </c>
-      <c r="K54" s="1">
-        <v>580696</v>
-      </c>
-      <c r="L54" s="1">
-        <v>255002</v>
-      </c>
-      <c r="M54" s="1">
-        <v>207762</v>
-      </c>
-      <c r="N54" s="1">
-        <v>330962</v>
-      </c>
-      <c r="O54" s="1">
-        <v>330962</v>
-      </c>
-      <c r="P54" s="1">
-        <v>263447</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>263447</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -3766,34 +2635,8 @@
       <c r="H55">
         <v>115099741</v>
       </c>
-      <c r="J55" t="s">
-        <v>104</v>
-      </c>
-      <c r="K55" s="1">
-        <v>28820722</v>
-      </c>
-      <c r="L55" s="1">
-        <v>31089612</v>
-      </c>
-      <c r="M55" s="1">
-        <v>25785992</v>
-      </c>
-      <c r="N55" s="1">
-        <v>27856910</v>
-      </c>
-      <c r="O55" s="1">
-        <v>27750455</v>
-      </c>
-      <c r="P55" s="1">
-        <f>SUM(P52:P54)</f>
-        <v>29330988</v>
-      </c>
-      <c r="Q55" s="1">
-        <f>SUM(Q52:Q54)</f>
-        <v>29580988</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -3818,13 +2661,8 @@
       <c r="H56">
         <v>26964125</v>
       </c>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -3849,16 +2687,8 @@
       <c r="H57">
         <v>18391816</v>
       </c>
-      <c r="J57" t="s">
-        <v>85</v>
-      </c>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -3883,32 +2713,8 @@
       <c r="H58">
         <v>19588394</v>
       </c>
-      <c r="J58" t="s">
-        <v>86</v>
-      </c>
-      <c r="K58" s="1">
-        <v>500000</v>
-      </c>
-      <c r="L58" s="1">
-        <v>500000</v>
-      </c>
-      <c r="M58" s="1">
-        <v>500000</v>
-      </c>
-      <c r="N58" s="1">
-        <v>500000</v>
-      </c>
-      <c r="O58" s="1">
-        <v>500000</v>
-      </c>
-      <c r="P58" s="1">
-        <v>750000</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>97</v>
       </c>
@@ -3933,32 +2739,8 @@
       <c r="H59">
         <v>5525740</v>
       </c>
-      <c r="J59" t="s">
-        <v>87</v>
-      </c>
-      <c r="K59" s="1">
-        <v>4472629</v>
-      </c>
-      <c r="L59" s="1">
-        <v>3560595</v>
-      </c>
-      <c r="M59" s="1">
-        <v>3743406</v>
-      </c>
-      <c r="N59" s="1">
-        <v>4023406</v>
-      </c>
-      <c r="O59" s="1">
-        <v>4023406</v>
-      </c>
-      <c r="P59" s="1">
-        <v>4163406</v>
-      </c>
-      <c r="Q59" s="1">
-        <v>4163406</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -3983,32 +2765,8 @@
       <c r="H60">
         <v>45508051</v>
       </c>
-      <c r="J60" t="s">
-        <v>88</v>
-      </c>
-      <c r="K60" s="1">
-        <v>7474062</v>
-      </c>
-      <c r="L60" s="1">
-        <v>6910069</v>
-      </c>
-      <c r="M60" s="1">
-        <v>6461013</v>
-      </c>
-      <c r="N60" s="1">
-        <v>6461013</v>
-      </c>
-      <c r="O60" s="1">
-        <v>6461013</v>
-      </c>
-      <c r="P60" s="1">
-        <v>6461013</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>6461013</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -4035,32 +2793,8 @@
         <f>SUM(H42:H60)</f>
         <v>441615097</v>
       </c>
-      <c r="J61" t="s">
-        <v>89</v>
-      </c>
-      <c r="K61" s="1">
-        <v>3616367</v>
-      </c>
-      <c r="L61" s="1">
-        <v>3573407</v>
-      </c>
-      <c r="M61" s="1">
-        <v>3588738</v>
-      </c>
-      <c r="N61" s="1">
-        <v>3588738</v>
-      </c>
-      <c r="O61" s="1">
-        <v>3588738</v>
-      </c>
-      <c r="P61" s="1">
-        <v>3588738</v>
-      </c>
-      <c r="Q61" s="1">
-        <v>3588738</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -4085,32 +2819,8 @@
       <c r="H62" t="s">
         <v>101</v>
       </c>
-      <c r="J62" t="s">
-        <v>90</v>
-      </c>
-      <c r="K62" s="1">
-        <v>325824</v>
-      </c>
-      <c r="L62" s="1">
-        <v>327822</v>
-      </c>
-      <c r="M62" s="1">
-        <v>225000</v>
-      </c>
-      <c r="N62" s="1">
-        <v>225000</v>
-      </c>
-      <c r="O62" s="1">
-        <v>225000</v>
-      </c>
-      <c r="P62" s="1">
-        <v>225000</v>
-      </c>
-      <c r="Q62" s="1">
-        <v>225000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -4135,32 +2845,8 @@
       <c r="H63">
         <v>-25157694</v>
       </c>
-      <c r="J63" t="s">
-        <v>91</v>
-      </c>
-      <c r="K63" s="1">
-        <v>380826</v>
-      </c>
-      <c r="L63" s="1">
-        <v>384216</v>
-      </c>
-      <c r="M63" s="1">
-        <v>382998</v>
-      </c>
-      <c r="N63" s="1">
-        <v>382998</v>
-      </c>
-      <c r="O63" s="1">
-        <v>382998</v>
-      </c>
-      <c r="P63" s="1">
-        <v>382998</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>382998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -4187,1020 +2873,2454 @@
         <f>SUM(H63,H42:H60)</f>
         <v>416457403</v>
       </c>
-      <c r="J64" t="s">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s">
+        <v>109</v>
+      </c>
+      <c r="H66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="1">
+        <v>984051</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1032227</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1052122</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1070929</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1092347</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1209625</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1233817</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="1">
+        <v>3110933</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3226626</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2844356</v>
+      </c>
+      <c r="E69" s="1">
+        <v>3050030</v>
+      </c>
+      <c r="F69" s="1">
+        <v>3191390</v>
+      </c>
+      <c r="G69" s="1">
+        <v>3417084</v>
+      </c>
+      <c r="H69" s="1">
+        <v>3475415</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="1">
+        <v>9542084</v>
+      </c>
+      <c r="C70" s="1">
+        <v>9762684</v>
+      </c>
+      <c r="D70" s="1">
+        <v>9948439</v>
+      </c>
+      <c r="E70" s="1">
+        <v>11826449</v>
+      </c>
+      <c r="F70" s="1">
+        <v>12027328</v>
+      </c>
+      <c r="G70" s="1">
+        <v>12816390</v>
+      </c>
+      <c r="H70" s="1">
+        <v>13081657</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="1">
+        <v>969769</v>
+      </c>
+      <c r="C71" s="1">
+        <v>947947</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1005000</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1005000</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1005000</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1250000</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="1">
+        <v>3917791</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4130013</v>
+      </c>
+      <c r="D72" s="1">
+        <v>4186198</v>
+      </c>
+      <c r="E72" s="1">
+        <v>4256305</v>
+      </c>
+      <c r="F72" s="1">
+        <v>4341432</v>
+      </c>
+      <c r="G72" s="1">
+        <v>4812892</v>
+      </c>
+      <c r="H72" s="1">
+        <v>4909150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2052466</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2065845</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2023244</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1866961</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1866961</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1352432</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1410489</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="1">
+        <v>52888</v>
+      </c>
+      <c r="C74" s="1">
+        <v>28164</v>
+      </c>
+      <c r="D74" s="1">
+        <v>35000</v>
+      </c>
+      <c r="E74" s="1">
+        <v>35000</v>
+      </c>
+      <c r="F74" s="1">
+        <v>35000</v>
+      </c>
+      <c r="G74" s="1">
+        <v>35000</v>
+      </c>
+      <c r="H74" s="1">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="1">
+        <v>4613</v>
+      </c>
+      <c r="C75" s="1">
+        <v>10</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B76" s="1">
+        <v>226933</v>
+      </c>
+      <c r="C76" s="1">
+        <v>226450</v>
+      </c>
+      <c r="D76" s="1">
+        <v>263000</v>
+      </c>
+      <c r="E76" s="1">
+        <v>263000</v>
+      </c>
+      <c r="F76" s="1">
+        <v>263000</v>
+      </c>
+      <c r="G76" s="1">
+        <v>489000</v>
+      </c>
+      <c r="H76" s="1">
+        <v>489000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="1">
+        <v>165672</v>
+      </c>
+      <c r="C77" s="1">
+        <v>164558</v>
+      </c>
+      <c r="D77" s="1">
+        <v>168550</v>
+      </c>
+      <c r="E77" s="1">
+        <v>168550</v>
+      </c>
+      <c r="F77" s="1">
+        <v>168550</v>
+      </c>
+      <c r="G77" s="1">
+        <v>174011</v>
+      </c>
+      <c r="H77" s="1">
+        <v>174011</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>488864</v>
+      </c>
+      <c r="D78" s="1">
+        <v>496424</v>
+      </c>
+      <c r="E78" s="1">
+        <v>546823</v>
+      </c>
+      <c r="F78" s="1">
+        <v>557759</v>
+      </c>
+      <c r="G78" s="1">
+        <v>664136</v>
+      </c>
+      <c r="H78" s="1">
+        <v>674098</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>30000</v>
+      </c>
+      <c r="E79" s="1">
+        <v>30000</v>
+      </c>
+      <c r="F79" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G79" s="1">
+        <v>30000</v>
+      </c>
+      <c r="H79" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" s="1">
+        <v>21027200</v>
+      </c>
+      <c r="C80" s="1">
+        <v>22073388</v>
+      </c>
+      <c r="D80" s="1">
+        <v>22052333</v>
+      </c>
+      <c r="E80" s="1">
+        <v>24119047</v>
+      </c>
+      <c r="F80" s="1">
+        <v>24578767</v>
+      </c>
+      <c r="G80" s="1">
+        <f>SUM(G68:G79)</f>
+        <v>26250570</v>
+      </c>
+      <c r="H80" s="1">
+        <f>SUM(H68:H79)</f>
+        <v>26762637</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" s="1">
+        <v>33861186</v>
+      </c>
+      <c r="C83" s="1">
+        <v>34101574</v>
+      </c>
+      <c r="D83" s="1">
+        <v>36673523</v>
+      </c>
+      <c r="E83" s="1">
+        <v>37600783</v>
+      </c>
+      <c r="F83" s="1">
+        <v>37710238</v>
+      </c>
+      <c r="G83" s="1">
+        <v>40453300</v>
+      </c>
+      <c r="H83" s="1">
+        <v>41242753</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" s="1">
+        <v>5230735</v>
+      </c>
+      <c r="C84" s="1">
+        <v>5478724</v>
+      </c>
+      <c r="D84" s="1">
+        <v>5558716</v>
+      </c>
+      <c r="E84" s="1">
+        <v>5311066</v>
+      </c>
+      <c r="F84" s="1">
+        <v>5311066</v>
+      </c>
+      <c r="G84" s="1">
+        <v>6245459</v>
+      </c>
+      <c r="H84" s="1">
+        <v>6270459</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" s="1">
+        <v>13315067</v>
+      </c>
+      <c r="C85" s="1">
+        <v>13588024</v>
+      </c>
+      <c r="D85" s="1">
+        <v>12801227</v>
+      </c>
+      <c r="E85" s="1">
+        <v>12801227</v>
+      </c>
+      <c r="F85" s="1">
+        <v>12801227</v>
+      </c>
+      <c r="G85" s="1">
+        <v>21384982</v>
+      </c>
+      <c r="H85" s="1">
+        <v>22827768</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2467033</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2316216</v>
+      </c>
+      <c r="D86" s="1">
+        <v>2365140</v>
+      </c>
+      <c r="E86" s="1">
+        <v>2502740</v>
+      </c>
+      <c r="F86" s="1">
+        <v>2510569</v>
+      </c>
+      <c r="G86" s="1">
+        <v>2388633</v>
+      </c>
+      <c r="H86" s="1">
+        <v>2369937</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" s="1">
+        <v>577473</v>
+      </c>
+      <c r="C87" s="1">
+        <v>245868</v>
+      </c>
+      <c r="D87" s="1">
+        <v>240501</v>
+      </c>
+      <c r="E87" s="1">
+        <v>240501</v>
+      </c>
+      <c r="F87" s="1">
+        <v>240501</v>
+      </c>
+      <c r="G87" s="1">
+        <v>240501</v>
+      </c>
+      <c r="H87" s="1">
+        <v>240501</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="1">
+        <v>9249750</v>
+      </c>
+      <c r="C88" s="1">
+        <v>14087031</v>
+      </c>
+      <c r="D88" s="1">
+        <v>13552248</v>
+      </c>
+      <c r="E88" s="1">
+        <v>12238260</v>
+      </c>
+      <c r="F88" s="1">
+        <v>12544854</v>
+      </c>
+      <c r="G88" s="1">
+        <v>14528343</v>
+      </c>
+      <c r="H88" s="1">
+        <v>15003859</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89" s="1">
+        <v>3781582</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3858118</v>
+      </c>
+      <c r="D89" s="1">
+        <v>3743972</v>
+      </c>
+      <c r="E89" s="1">
+        <v>4204428</v>
+      </c>
+      <c r="F89" s="1">
+        <v>3504428</v>
+      </c>
+      <c r="G89" s="1">
+        <v>3496428</v>
+      </c>
+      <c r="H89" s="1">
+        <v>3496428</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" s="1">
+        <v>6496735</v>
+      </c>
+      <c r="C90" s="1">
+        <v>8052253</v>
+      </c>
+      <c r="D90" s="1">
+        <v>6861311</v>
+      </c>
+      <c r="E90" s="1">
+        <v>9191713</v>
+      </c>
+      <c r="F90" s="1">
+        <v>9191713</v>
+      </c>
+      <c r="G90" s="1">
+        <v>9191713</v>
+      </c>
+      <c r="H90" s="1">
+        <v>9191713</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" s="1">
+        <v>835264</v>
+      </c>
+      <c r="C91" s="1">
+        <v>792597</v>
+      </c>
+      <c r="D91" s="1">
+        <v>864531</v>
+      </c>
+      <c r="E91" s="1">
+        <v>851868</v>
+      </c>
+      <c r="F91" s="1">
+        <v>851868</v>
+      </c>
+      <c r="G91" s="1">
+        <v>792500</v>
+      </c>
+      <c r="H91" s="1">
+        <v>780500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>64</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2632711</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2237128</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2193961</v>
+      </c>
+      <c r="E92" s="1">
+        <v>2086780</v>
+      </c>
+      <c r="F92" s="1">
+        <v>2111455</v>
+      </c>
+      <c r="G92" s="1">
+        <v>3043752</v>
+      </c>
+      <c r="H92" s="1">
+        <v>3056813</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="1">
+        <v>78447536</v>
+      </c>
+      <c r="C93" s="1">
+        <v>84757533</v>
+      </c>
+      <c r="D93" s="1">
+        <v>84855130</v>
+      </c>
+      <c r="E93" s="1">
+        <v>87029366</v>
+      </c>
+      <c r="F93" s="1">
+        <v>86777919</v>
+      </c>
+      <c r="G93" s="1">
+        <f>SUM(G83:G92)</f>
+        <v>101765611</v>
+      </c>
+      <c r="H93" s="1">
+        <f>SUM(H83:H92)</f>
+        <v>104480731</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B95" s="1">
+        <v>7360154</v>
+      </c>
+      <c r="C95" s="1">
+        <v>6713733</v>
+      </c>
+      <c r="D95" s="1">
+        <v>6161504</v>
+      </c>
+      <c r="E95" s="1">
+        <v>6042504</v>
+      </c>
+      <c r="F95" s="1">
+        <v>6042504</v>
+      </c>
+      <c r="G95" s="1">
+        <v>9197989</v>
+      </c>
+      <c r="H95" s="1">
+        <v>9376698</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>67</v>
+      </c>
+      <c r="B98" s="1">
+        <v>17486</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2639</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G98" t="s">
+        <v>101</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" s="1">
+        <v>3253</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1032</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G99" t="s">
+        <v>101</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>69</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>14975000</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" s="1">
+        <v>952</v>
+      </c>
+      <c r="C101" s="1">
+        <v>292</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1">
+        <v>103336</v>
+      </c>
+      <c r="E102" s="1">
+        <v>103336</v>
+      </c>
+      <c r="F102" s="1">
+        <v>103336</v>
+      </c>
+      <c r="G102" s="1">
+        <v>103336</v>
+      </c>
+      <c r="H102" s="1">
+        <v>103336</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>72</v>
+      </c>
+      <c r="B103" s="1">
+        <v>100002</v>
+      </c>
+      <c r="C103" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D103" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E103" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F103" s="1">
+        <v>100000</v>
+      </c>
+      <c r="G103" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H103" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>73</v>
+      </c>
+      <c r="B104" s="1">
+        <v>13</v>
+      </c>
+      <c r="C104" s="1">
+        <v>4</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
+        <v>121706</v>
+      </c>
+      <c r="C105" s="1">
+        <v>15078967</v>
+      </c>
+      <c r="D105" s="1">
+        <v>203336</v>
+      </c>
+      <c r="E105" s="1">
+        <v>203336</v>
+      </c>
+      <c r="F105" s="1">
+        <v>203336</v>
+      </c>
+      <c r="G105" s="1">
+        <f>SUM(G102:G103)</f>
+        <v>203336</v>
+      </c>
+      <c r="H105" s="1">
+        <f>SUM(H102:H103)</f>
+        <v>203336</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>74</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>75</v>
+      </c>
+      <c r="B108" s="1">
+        <v>473295</v>
+      </c>
+      <c r="C108" s="1">
+        <v>473287</v>
+      </c>
+      <c r="D108" s="1">
+        <v>376750</v>
+      </c>
+      <c r="E108" s="1">
+        <v>335750</v>
+      </c>
+      <c r="F108" s="1">
+        <v>296000</v>
+      </c>
+      <c r="G108" s="1">
+        <v>262500</v>
+      </c>
+      <c r="H108" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109" s="1">
+        <v>1654837</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1752087</v>
+      </c>
+      <c r="D109" s="1">
+        <v>1604969</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1604969</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1604969</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1604969</v>
+      </c>
+      <c r="H109" s="1">
+        <v>1604969</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>77</v>
+      </c>
+      <c r="B110" s="1">
+        <v>5829505</v>
+      </c>
+      <c r="C110" s="1">
+        <v>456963</v>
+      </c>
+      <c r="D110" s="1">
+        <v>500317</v>
+      </c>
+      <c r="E110" s="1">
+        <v>500645</v>
+      </c>
+      <c r="F110" s="1">
+        <v>499333</v>
+      </c>
+      <c r="G110" s="1">
+        <v>499942</v>
+      </c>
+      <c r="H110" s="1">
+        <v>498935</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" s="1">
+        <v>992638</v>
+      </c>
+      <c r="C111" s="1">
+        <v>991639</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G111" t="s">
+        <v>101</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>79</v>
+      </c>
+      <c r="B112" s="1">
+        <v>1505385</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1650360</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1463321</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1463321</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1463321</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1463321</v>
+      </c>
+      <c r="H112" s="1">
+        <v>1463321</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>80</v>
+      </c>
+      <c r="B113" s="1">
+        <v>3973698</v>
+      </c>
+      <c r="C113" s="1">
+        <v>5321667</v>
+      </c>
+      <c r="D113" s="1">
+        <v>4283772</v>
+      </c>
+      <c r="E113" s="1">
+        <v>4274566</v>
+      </c>
+      <c r="F113" s="1">
+        <v>4280141</v>
+      </c>
+      <c r="G113" s="1">
+        <v>4275466</v>
+      </c>
+      <c r="H113" s="1">
+        <v>4275416</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>104</v>
+      </c>
+      <c r="B114" s="1">
+        <v>14429358</v>
+      </c>
+      <c r="C114" s="1">
+        <v>10646003</v>
+      </c>
+      <c r="D114" s="1">
+        <v>8229129</v>
+      </c>
+      <c r="E114" s="1">
+        <v>8179251</v>
+      </c>
+      <c r="F114" s="1">
+        <v>8143764</v>
+      </c>
+      <c r="G114" s="1">
+        <f>SUM(G108:G113)</f>
+        <v>8106198</v>
+      </c>
+      <c r="H114" s="1">
+        <f>SUM(H108:H113)</f>
+        <v>7842641</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>81</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>82</v>
+      </c>
+      <c r="B117" s="1">
+        <v>7320500</v>
+      </c>
+      <c r="C117" s="1">
+        <v>8012853</v>
+      </c>
+      <c r="D117" s="1">
+        <v>7274894</v>
+      </c>
+      <c r="E117" s="1">
+        <v>7559973</v>
+      </c>
+      <c r="F117" s="1">
+        <v>7559973</v>
+      </c>
+      <c r="G117" s="1">
+        <v>9810018</v>
+      </c>
+      <c r="H117" s="1">
+        <v>9810018</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>83</v>
+      </c>
+      <c r="B118" s="1">
+        <v>20919526</v>
+      </c>
+      <c r="C118" s="1">
+        <v>22821757</v>
+      </c>
+      <c r="D118" s="1">
+        <v>18303336</v>
+      </c>
+      <c r="E118" s="1">
+        <v>19965975</v>
+      </c>
+      <c r="F118" s="1">
+        <v>19859520</v>
+      </c>
+      <c r="G118" s="1">
+        <v>19257523</v>
+      </c>
+      <c r="H118" s="1">
+        <v>19507523</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119" s="1">
+        <v>580696</v>
+      </c>
+      <c r="C119" s="1">
+        <v>255002</v>
+      </c>
+      <c r="D119" s="1">
+        <v>207762</v>
+      </c>
+      <c r="E119" s="1">
+        <v>330962</v>
+      </c>
+      <c r="F119" s="1">
+        <v>330962</v>
+      </c>
+      <c r="G119" s="1">
+        <v>263447</v>
+      </c>
+      <c r="H119" s="1">
+        <v>263447</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>104</v>
+      </c>
+      <c r="B120" s="1">
+        <v>28820722</v>
+      </c>
+      <c r="C120" s="1">
+        <v>31089612</v>
+      </c>
+      <c r="D120" s="1">
+        <v>25785992</v>
+      </c>
+      <c r="E120" s="1">
+        <v>27856910</v>
+      </c>
+      <c r="F120" s="1">
+        <v>27750455</v>
+      </c>
+      <c r="G120" s="1">
+        <f>SUM(G117:G119)</f>
+        <v>29330988</v>
+      </c>
+      <c r="H120" s="1">
+        <f>SUM(H117:H119)</f>
+        <v>29580988</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>85</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>86</v>
+      </c>
+      <c r="B123" s="1">
+        <v>500000</v>
+      </c>
+      <c r="C123" s="1">
+        <v>500000</v>
+      </c>
+      <c r="D123" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E123" s="1">
+        <v>500000</v>
+      </c>
+      <c r="F123" s="1">
+        <v>500000</v>
+      </c>
+      <c r="G123" s="1">
+        <v>750000</v>
+      </c>
+      <c r="H123" s="1">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>87</v>
+      </c>
+      <c r="B124" s="1">
+        <v>4472629</v>
+      </c>
+      <c r="C124" s="1">
+        <v>3560595</v>
+      </c>
+      <c r="D124" s="1">
+        <v>3743406</v>
+      </c>
+      <c r="E124" s="1">
+        <v>4023406</v>
+      </c>
+      <c r="F124" s="1">
+        <v>4023406</v>
+      </c>
+      <c r="G124" s="1">
+        <v>4163406</v>
+      </c>
+      <c r="H124" s="1">
+        <v>4163406</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>88</v>
+      </c>
+      <c r="B125" s="1">
+        <v>7474062</v>
+      </c>
+      <c r="C125" s="1">
+        <v>6910069</v>
+      </c>
+      <c r="D125" s="1">
+        <v>6461013</v>
+      </c>
+      <c r="E125" s="1">
+        <v>6461013</v>
+      </c>
+      <c r="F125" s="1">
+        <v>6461013</v>
+      </c>
+      <c r="G125" s="1">
+        <v>6461013</v>
+      </c>
+      <c r="H125" s="1">
+        <v>6461013</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>89</v>
+      </c>
+      <c r="B126" s="1">
+        <v>3616367</v>
+      </c>
+      <c r="C126" s="1">
+        <v>3573407</v>
+      </c>
+      <c r="D126" s="1">
+        <v>3588738</v>
+      </c>
+      <c r="E126" s="1">
+        <v>3588738</v>
+      </c>
+      <c r="F126" s="1">
+        <v>3588738</v>
+      </c>
+      <c r="G126" s="1">
+        <v>3588738</v>
+      </c>
+      <c r="H126" s="1">
+        <v>3588738</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>90</v>
+      </c>
+      <c r="B127" s="1">
+        <v>325824</v>
+      </c>
+      <c r="C127" s="1">
+        <v>327822</v>
+      </c>
+      <c r="D127" s="1">
+        <v>225000</v>
+      </c>
+      <c r="E127" s="1">
+        <v>225000</v>
+      </c>
+      <c r="F127" s="1">
+        <v>225000</v>
+      </c>
+      <c r="G127" s="1">
+        <v>225000</v>
+      </c>
+      <c r="H127" s="1">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>91</v>
+      </c>
+      <c r="B128" s="1">
+        <v>380826</v>
+      </c>
+      <c r="C128" s="1">
+        <v>384216</v>
+      </c>
+      <c r="D128" s="1">
+        <v>382998</v>
+      </c>
+      <c r="E128" s="1">
+        <v>382998</v>
+      </c>
+      <c r="F128" s="1">
+        <v>382998</v>
+      </c>
+      <c r="G128" s="1">
+        <v>382998</v>
+      </c>
+      <c r="H128" s="1">
+        <v>382998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>92</v>
       </c>
-      <c r="K64" s="1">
+      <c r="B129" s="1">
         <v>7967786</v>
       </c>
-      <c r="L64" s="1">
+      <c r="C129" s="1">
         <v>8226975</v>
       </c>
-      <c r="M64" s="1">
+      <c r="D129" s="1">
         <v>8316328</v>
       </c>
-      <c r="N64" s="1">
+      <c r="E129" s="1">
         <v>9199194</v>
       </c>
-      <c r="O64" s="1">
+      <c r="F129" s="1">
         <v>9201683</v>
       </c>
-      <c r="P64" s="1">
+      <c r="G129" s="1">
         <v>9569988</v>
       </c>
-      <c r="Q64" s="1">
+      <c r="H129" s="1">
         <v>9681972</v>
       </c>
     </row>
-    <row r="65" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J65" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>104</v>
       </c>
-      <c r="K65" s="1">
+      <c r="B130" s="1">
         <v>24737494</v>
       </c>
-      <c r="L65" s="1">
+      <c r="C130" s="1">
         <v>23483084</v>
       </c>
-      <c r="M65" s="1">
+      <c r="D130" s="1">
         <v>23217483</v>
       </c>
-      <c r="N65" s="1">
+      <c r="E130" s="1">
         <v>24380349</v>
       </c>
-      <c r="O65" s="1">
+      <c r="F130" s="1">
         <v>24382838</v>
       </c>
-      <c r="P65" s="1">
-        <f>SUM(P58:P64)</f>
+      <c r="G130" s="1">
+        <f>SUM(G123:G129)</f>
         <v>25141143</v>
       </c>
-      <c r="Q65" s="1">
-        <f>SUM(Q58:Q64)</f>
+      <c r="H130" s="1">
+        <f>SUM(H123:H129)</f>
         <v>25253127</v>
       </c>
     </row>
-    <row r="66" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-    </row>
-    <row r="67" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J67" t="s">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>93</v>
       </c>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J68" t="s">
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>94</v>
       </c>
-      <c r="K68" s="1">
+      <c r="B133" s="1">
         <v>5305154</v>
       </c>
-      <c r="L68" s="1">
+      <c r="C133" s="1">
         <v>8222193</v>
       </c>
-      <c r="M68" s="1">
+      <c r="D133" s="1">
         <v>7731607</v>
       </c>
-      <c r="N68" s="1">
+      <c r="E133" s="1">
         <v>5501269</v>
       </c>
-      <c r="O68" s="1">
+      <c r="F133" s="1">
         <v>5501269</v>
       </c>
-      <c r="P68" s="1">
+      <c r="G133" s="1">
         <v>5348269</v>
       </c>
-      <c r="Q68" s="1">
+      <c r="H133" s="1">
         <v>5348269</v>
       </c>
     </row>
-    <row r="69" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J69" t="s">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>95</v>
       </c>
-      <c r="K69" s="1">
+      <c r="B134" s="1">
         <v>1752987</v>
       </c>
-      <c r="L69" s="1">
+      <c r="C134" s="1">
         <v>1695888</v>
       </c>
-      <c r="M69" s="1">
+      <c r="D134" s="1">
         <v>1695888</v>
       </c>
-      <c r="N69" s="1">
+      <c r="E134" s="1">
         <v>1695888</v>
       </c>
-      <c r="O69" s="1">
+      <c r="F134" s="1">
         <v>1695888</v>
       </c>
-      <c r="P69" s="1">
+      <c r="G134" s="1">
         <v>695000</v>
       </c>
-      <c r="Q69" s="1">
+      <c r="H134" s="1">
         <v>393623</v>
       </c>
     </row>
-    <row r="70" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J70" t="s">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>96</v>
       </c>
-      <c r="K70" s="1">
+      <c r="B135" s="1">
         <v>15488692</v>
       </c>
-      <c r="L70" s="1">
+      <c r="C135" s="1">
         <v>16236039</v>
       </c>
-      <c r="M70" s="1">
+      <c r="D135" s="1">
         <v>16631412</v>
       </c>
-      <c r="N70" s="1">
+      <c r="E135" s="1">
         <v>16904288</v>
       </c>
-      <c r="O70" s="1">
+      <c r="F135" s="1">
         <v>17236634</v>
       </c>
-      <c r="P70" s="1">
+      <c r="G135" s="1">
         <v>19020937</v>
       </c>
-      <c r="Q70" s="1">
+      <c r="H135" s="1">
         <v>19369671</v>
       </c>
     </row>
-    <row r="71" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J71" t="s">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>97</v>
       </c>
-      <c r="K71" s="1">
+      <c r="B136" s="1">
         <v>3911005</v>
       </c>
-      <c r="L71" s="1">
+      <c r="C136" s="1">
         <v>3899835</v>
       </c>
-      <c r="M71" s="1">
+      <c r="D136" s="1">
         <v>3900000</v>
       </c>
-      <c r="N71" s="1">
+      <c r="E136" s="1">
         <v>3900000</v>
       </c>
-      <c r="O71" s="1">
+      <c r="F136" s="1">
         <v>3900000</v>
       </c>
-      <c r="P71" s="1">
+      <c r="G136" s="1">
         <v>5500000</v>
       </c>
-      <c r="Q71" s="1">
+      <c r="H136" s="1">
         <v>5500000</v>
       </c>
     </row>
-    <row r="72" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J72" t="s">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>98</v>
       </c>
-      <c r="K72" s="1">
+      <c r="B137" s="1">
         <v>2746208</v>
       </c>
-      <c r="L72" s="1">
+      <c r="C137" s="1">
         <v>2868432</v>
       </c>
-      <c r="M72" s="1">
+      <c r="D137" s="1">
         <v>3172884</v>
       </c>
-      <c r="N72" s="1">
+      <c r="E137" s="1">
         <v>1222988</v>
       </c>
-      <c r="O72" s="1">
+      <c r="F137" s="1">
         <v>1222988</v>
       </c>
-      <c r="P72" s="1">
+      <c r="G137" s="1">
         <v>486367</v>
       </c>
-      <c r="Q72" s="1">
+      <c r="H137" s="1">
         <v>486367</v>
       </c>
     </row>
-    <row r="73" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J73" t="s">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>99</v>
       </c>
-      <c r="K73" s="1">
+      <c r="B138" s="1">
         <v>2072410</v>
       </c>
-      <c r="L73" s="1">
+      <c r="C138" s="1">
         <v>6352799</v>
       </c>
-      <c r="M73" s="1">
+      <c r="D138" s="1">
         <v>1000832</v>
       </c>
-      <c r="N73" s="1">
+      <c r="E138" s="1">
         <v>1000832</v>
       </c>
-      <c r="O73" s="1">
+      <c r="F138" s="1">
         <v>1000832</v>
       </c>
-      <c r="P73" s="1">
+      <c r="G138" s="1">
         <v>1000832</v>
       </c>
-      <c r="Q73" s="1">
+      <c r="H138" s="1">
         <v>1000832</v>
       </c>
     </row>
-    <row r="74" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J74" t="s">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>100</v>
       </c>
-      <c r="K74" s="1">
+      <c r="B139" s="1">
         <v>3583097</v>
       </c>
-      <c r="L74" s="1">
+      <c r="C139" s="1">
         <v>4081366</v>
       </c>
-      <c r="M74" s="1">
+      <c r="D139" s="1">
         <v>3603018</v>
       </c>
-      <c r="N74" s="1">
+      <c r="E139" s="1">
         <v>3703018</v>
       </c>
-      <c r="O74" s="1">
+      <c r="F139" s="1">
         <v>3703018</v>
       </c>
-      <c r="P74" s="1">
+      <c r="G139" s="1">
         <v>3703018</v>
       </c>
-      <c r="Q74" s="1">
+      <c r="H139" s="1">
         <v>3703018</v>
       </c>
     </row>
-    <row r="75" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J75" t="s">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>93</v>
       </c>
-      <c r="K75" s="1">
+      <c r="B140" s="1">
         <v>5254050</v>
       </c>
-      <c r="L75" s="1">
+      <c r="C140" s="1">
         <v>6405333</v>
       </c>
-      <c r="M75" s="1">
+      <c r="D140" s="1">
         <v>4026059</v>
       </c>
-      <c r="N75" s="1">
+      <c r="E140" s="1">
         <v>4110712</v>
       </c>
-      <c r="O75" s="1">
+      <c r="F140" s="1">
         <v>4176884</v>
       </c>
-      <c r="P75" s="1">
+      <c r="G140" s="1">
         <v>4183079</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="H140" s="1">
         <v>4031843</v>
       </c>
     </row>
-    <row r="76" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J76" t="s">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>104</v>
       </c>
-      <c r="K76" s="1">
+      <c r="B141" s="1">
         <v>40113603</v>
       </c>
-      <c r="L76" s="1">
+      <c r="C141" s="1">
         <v>49761885</v>
       </c>
-      <c r="M76" s="1">
+      <c r="D141" s="1">
         <v>41761700</v>
       </c>
-      <c r="N76" s="1">
+      <c r="E141" s="1">
         <v>38038995</v>
       </c>
-      <c r="O76" s="1">
+      <c r="F141" s="1">
         <v>38437513</v>
       </c>
-      <c r="P76" s="1">
-        <f>SUM(P68:P75)</f>
+      <c r="G141" s="1">
+        <f>SUM(G133:G140)</f>
         <v>39937502</v>
       </c>
-      <c r="Q76" s="1">
-        <f>SUM(Q68:Q75)</f>
+      <c r="H141" s="1">
+        <f>SUM(H133:H140)</f>
         <v>39833623</v>
       </c>
     </row>
-    <row r="77" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-    </row>
-    <row r="78" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J78" t="s">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>102</v>
       </c>
-      <c r="K78" s="1">
+      <c r="B143" s="1">
         <v>215057773</v>
       </c>
-      <c r="L78" s="1">
+      <c r="C143" s="1">
         <v>243604205</v>
       </c>
-      <c r="M78" s="1">
+      <c r="D143" s="1">
         <v>212266607</v>
       </c>
-      <c r="N78" s="1">
+      <c r="E143" s="1">
         <v>215849758</v>
       </c>
-      <c r="O78" s="1">
+      <c r="F143" s="1">
         <v>216317096</v>
       </c>
-      <c r="P78" s="1">
-        <f>SUM(P76,P65,P55,P49,P40,P28,P15)</f>
+      <c r="G143" s="1">
+        <f>SUM(G141,G130,G120,G114,G105,G93,G80)</f>
         <v>230735348</v>
       </c>
-      <c r="Q78" s="1">
-        <f>SUM(Q76,Q65,Q55,Q49,Q40,Q28,Q15)</f>
+      <c r="H143" s="1">
+        <f>SUM(H141,H130,H120,H114,H105,H93,H80)</f>
         <v>233957083</v>
       </c>
     </row>
-    <row r="83" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J83" t="s">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>107</v>
       </c>
-      <c r="K83" t="s">
+      <c r="B148" t="s">
         <v>20</v>
       </c>
-      <c r="L83" t="s">
+      <c r="C148" t="s">
         <v>21</v>
       </c>
-      <c r="M83" t="s">
+      <c r="D148" t="s">
         <v>22</v>
       </c>
-      <c r="N83" t="s">
+      <c r="E148" t="s">
         <v>23</v>
       </c>
-      <c r="O83" t="s">
+      <c r="F148" t="s">
         <v>24</v>
       </c>
-      <c r="P83" t="s">
+      <c r="G148" t="s">
         <v>109</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="H148" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J84" t="s">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>2</v>
       </c>
-      <c r="K84">
+      <c r="B149">
         <v>0</v>
       </c>
-      <c r="L84">
+      <c r="C149">
         <v>0</v>
       </c>
-      <c r="M84">
+      <c r="D149">
         <v>0</v>
       </c>
-      <c r="N84">
+      <c r="E149">
         <v>0</v>
       </c>
-      <c r="O84">
+      <c r="F149">
         <v>0</v>
       </c>
-      <c r="P84">
+      <c r="G149">
         <v>0</v>
       </c>
-      <c r="Q84">
+      <c r="H149">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J85" t="s">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>3</v>
       </c>
-      <c r="K85">
+      <c r="B150">
         <v>119600</v>
       </c>
-      <c r="L85">
+      <c r="C150">
         <v>140132</v>
       </c>
-      <c r="M85">
+      <c r="D150">
         <v>130027</v>
       </c>
-      <c r="N85">
+      <c r="E150">
         <v>153492</v>
       </c>
-      <c r="O85">
+      <c r="F150">
         <v>156260</v>
       </c>
-      <c r="P85">
+      <c r="G150">
         <v>162800</v>
       </c>
-      <c r="Q85">
+      <c r="H150">
         <v>166585</v>
       </c>
     </row>
-    <row r="86" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J86" t="s">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>4</v>
       </c>
-      <c r="K86">
+      <c r="B151">
         <v>0</v>
       </c>
-      <c r="L86">
+      <c r="C151">
         <v>0</v>
       </c>
-      <c r="M86">
+      <c r="D151">
         <v>0</v>
       </c>
-      <c r="N86">
+      <c r="E151">
         <v>0</v>
       </c>
-      <c r="O86">
+      <c r="F151">
         <v>0</v>
       </c>
-      <c r="P86">
+      <c r="G151">
         <v>0</v>
       </c>
-      <c r="Q86">
+      <c r="H151">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J87" t="s">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>5</v>
       </c>
-      <c r="K87">
+      <c r="B152">
         <v>278080</v>
       </c>
-      <c r="L87">
+      <c r="C152">
         <v>272483</v>
       </c>
-      <c r="M87">
+      <c r="D152">
         <v>451961</v>
       </c>
-      <c r="N87">
+      <c r="E152">
         <v>490153</v>
       </c>
-      <c r="O87">
+      <c r="F152">
         <v>494948</v>
       </c>
-      <c r="P87">
+      <c r="G152">
         <f>6637466 - 5883194</f>
         <v>754272</v>
       </c>
-      <c r="Q87">
+      <c r="H152">
         <f>6867862-6106514</f>
         <v>761348</v>
       </c>
     </row>
-    <row r="88" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J88" t="s">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>6</v>
       </c>
-      <c r="K88">
+      <c r="B153">
         <v>1877780</v>
       </c>
-      <c r="L88">
+      <c r="C153">
         <v>1367760</v>
       </c>
-      <c r="M88">
+      <c r="D153">
         <v>2227862</v>
       </c>
-      <c r="N88">
+      <c r="E153">
         <v>2286738</v>
       </c>
-      <c r="O88">
+      <c r="F153">
         <v>2301721</v>
       </c>
-      <c r="P88">
+      <c r="G153">
         <f>5626805-2691403</f>
         <v>2935402</v>
       </c>
-      <c r="Q88">
+      <c r="H153">
         <f>5501089-2560121</f>
         <v>2940968</v>
       </c>
     </row>
-    <row r="89" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J89" t="s">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>7</v>
       </c>
-      <c r="K89">
+      <c r="B154">
         <v>3771757</v>
       </c>
-      <c r="L89">
+      <c r="C154">
         <v>3383853</v>
       </c>
-      <c r="M89">
+      <c r="D154">
         <v>3453425</v>
       </c>
-      <c r="N89">
+      <c r="E154">
         <v>3511390</v>
       </c>
-      <c r="O89">
+      <c r="F154">
         <v>3542616</v>
       </c>
-      <c r="P89">
+      <c r="G154">
         <f>16291888-5770103</f>
         <v>10521785</v>
       </c>
-      <c r="Q89">
+      <c r="H154">
         <f>17243481-6232527</f>
         <v>11010954</v>
       </c>
     </row>
-    <row r="90" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J90" t="s">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>8</v>
       </c>
-      <c r="K90">
+      <c r="B155">
         <v>1229537</v>
       </c>
-      <c r="L90">
+      <c r="C155">
         <v>1696419</v>
       </c>
-      <c r="M90">
+      <c r="D155">
         <v>1719633</v>
       </c>
-      <c r="N90">
+      <c r="E155">
         <v>1776141</v>
       </c>
-      <c r="O90">
+      <c r="F155">
         <v>1784092</v>
       </c>
-      <c r="P90">
+      <c r="G155">
         <f>4343771 - 2398356</f>
         <v>1945415</v>
       </c>
-      <c r="Q90">
+      <c r="H155">
         <f>4418951-2453702</f>
         <v>1965249</v>
       </c>
     </row>
-    <row r="91" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J91" t="s">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>9</v>
       </c>
-      <c r="K91">
+      <c r="B156">
         <v>0</v>
       </c>
-      <c r="L91">
+      <c r="C156">
         <v>0</v>
       </c>
-      <c r="M91">
+      <c r="D156">
         <v>0</v>
       </c>
-      <c r="N91">
+      <c r="E156">
         <v>0</v>
       </c>
-      <c r="O91">
+      <c r="F156">
         <v>0</v>
       </c>
-      <c r="P91">
+      <c r="G156">
         <v>0</v>
       </c>
-      <c r="Q91">
+      <c r="H156">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J92" t="s">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>10</v>
       </c>
-      <c r="K92">
+      <c r="B157">
         <v>1657626</v>
       </c>
-      <c r="L92">
+      <c r="C157">
         <v>1601974</v>
       </c>
-      <c r="M92">
+      <c r="D157">
         <v>1878587</v>
       </c>
-      <c r="N92">
+      <c r="E157">
         <v>1886893</v>
       </c>
-      <c r="O92">
+      <c r="F157">
         <v>1907626</v>
       </c>
-      <c r="P92">
+      <c r="G157">
         <f>7727093-5756160</f>
         <v>1970933</v>
       </c>
-      <c r="Q92">
+      <c r="H157">
         <f>7743231-5741525</f>
         <v>2001706</v>
       </c>
     </row>
-    <row r="93" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J93" t="s">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>11</v>
       </c>
-      <c r="K93">
+      <c r="B158">
         <v>1077991</v>
       </c>
-      <c r="L93">
+      <c r="C158">
         <v>1198629</v>
       </c>
-      <c r="M93">
+      <c r="D158">
         <v>1333418</v>
       </c>
-      <c r="N93">
+      <c r="E158">
         <v>1400864</v>
       </c>
-      <c r="O93">
+      <c r="F158">
         <v>1423561</v>
       </c>
-      <c r="P93">
+      <c r="G158">
         <f>3810616-1977674</f>
         <v>1832942</v>
       </c>
-      <c r="Q93">
+      <c r="H158">
         <f>3900907-2024979</f>
         <v>1875928</v>
       </c>
     </row>
-    <row r="94" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J94" t="s">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>12</v>
       </c>
-      <c r="K94">
+      <c r="B159">
         <v>22732453</v>
       </c>
-      <c r="L94">
+      <c r="C159">
         <v>22956307</v>
       </c>
-      <c r="M94">
+      <c r="D159">
         <v>25490291</v>
       </c>
-      <c r="N94">
+      <c r="E159">
         <v>28954380</v>
       </c>
-      <c r="O94">
+      <c r="F159">
         <v>27580827</v>
       </c>
-      <c r="P94">
+      <c r="G159">
         <f>47355255 - 15049190</f>
         <v>32306065</v>
       </c>
-      <c r="Q94">
+      <c r="H159">
         <f>48602035 - 14946689</f>
         <v>33655346</v>
       </c>
     </row>
-    <row r="95" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J95" t="s">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>13</v>
       </c>
-      <c r="K95">
+      <c r="B160">
         <v>2718030</v>
       </c>
-      <c r="L95">
+      <c r="C160">
         <v>3863903</v>
       </c>
-      <c r="M95">
+      <c r="D160">
         <v>4613303</v>
       </c>
-      <c r="N95">
+      <c r="E160">
         <v>4986922</v>
       </c>
-      <c r="O95">
+      <c r="F160">
         <v>5051999</v>
       </c>
-      <c r="P95">
+      <c r="G160">
         <f>66747004 - 61378677</f>
         <v>5368327</v>
       </c>
-      <c r="Q95">
+      <c r="H160">
         <f>68665330 - 63187683</f>
         <v>5477647</v>
       </c>
     </row>
-    <row r="96" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J96" t="s">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>14</v>
       </c>
-      <c r="K96">
+      <c r="B161">
         <v>5839425</v>
       </c>
-      <c r="L96">
+      <c r="C161">
         <v>5851217</v>
       </c>
-      <c r="M96">
+      <c r="D161">
         <v>7056428</v>
       </c>
-      <c r="N96">
+      <c r="E161">
         <v>7527406</v>
       </c>
-      <c r="O96">
+      <c r="F161">
         <v>7581542</v>
       </c>
-      <c r="P96">
+      <c r="G161">
         <f>39091308-30984535</f>
         <v>8106773</v>
       </c>
-      <c r="Q96">
+      <c r="H161">
         <f>40213292-31985365</f>
         <v>8227927</v>
       </c>
     </row>
-    <row r="97" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J97" t="s">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>15</v>
       </c>
-      <c r="K97">
+      <c r="B162">
         <v>90011682</v>
       </c>
-      <c r="L97">
+      <c r="C162">
         <v>87384742</v>
       </c>
-      <c r="M97">
+      <c r="D162">
         <v>92642275</v>
       </c>
-      <c r="N97">
+      <c r="E162">
         <v>97542225</v>
       </c>
-      <c r="O97">
+      <c r="F162">
         <v>93875848</v>
       </c>
-      <c r="P97">
+      <c r="G162">
         <f>151198065-3276300</f>
         <v>147921765</v>
       </c>
-      <c r="Q97">
+      <c r="H162">
         <f>115099741-317370</f>
         <v>114782371</v>
       </c>
     </row>
-    <row r="98" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J98" t="s">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>16</v>
       </c>
-      <c r="K98">
+      <c r="B163">
         <v>18937891</v>
       </c>
-      <c r="L98">
+      <c r="C163">
         <v>18419202</v>
       </c>
-      <c r="M98">
+      <c r="D163">
         <v>17962391</v>
       </c>
-      <c r="N98">
+      <c r="E163">
         <v>19565560</v>
       </c>
-      <c r="O98">
+      <c r="F163">
         <v>19223958</v>
       </c>
-      <c r="P98">
+      <c r="G163">
         <f>28271481-5389002</f>
         <v>22882479</v>
       </c>
-      <c r="Q98">
+      <c r="H163">
         <f>26964125-5741567</f>
         <v>21222558</v>
       </c>
     </row>
-    <row r="99" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J99" t="s">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>17</v>
       </c>
-      <c r="K99">
+      <c r="B164">
         <v>9661327</v>
       </c>
-      <c r="L99">
+      <c r="C164">
         <v>10851361</v>
       </c>
-      <c r="M99">
+      <c r="D164">
         <v>11417342</v>
       </c>
-      <c r="N99">
+      <c r="E164">
         <v>12757697</v>
       </c>
-      <c r="O99">
+      <c r="F164">
         <v>12920482</v>
       </c>
-      <c r="P99">
+      <c r="G164">
         <f>18201442-1923055</f>
         <v>16278387</v>
       </c>
-      <c r="Q99">
+      <c r="H164">
         <f>18391816 - 1939915</f>
         <v>16451901</v>
       </c>
     </row>
-    <row r="100" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J100" t="s">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>96</v>
       </c>
-      <c r="K100">
+      <c r="B165">
         <v>23743956</v>
       </c>
-      <c r="L100">
+      <c r="C165">
         <v>20326538</v>
       </c>
-      <c r="M100">
+      <c r="D165">
         <v>19094157</v>
       </c>
-      <c r="N100">
+      <c r="E165">
         <v>18908184</v>
       </c>
-      <c r="O100">
+      <c r="F165">
         <v>17577785</v>
       </c>
-      <c r="P100">
+      <c r="G165">
         <f>20990466 - 20159016</f>
         <v>831450</v>
       </c>
-      <c r="Q100">
+      <c r="H165">
         <f>19588394-19305833</f>
         <v>282561</v>
       </c>
     </row>
-    <row r="101" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J101" t="s">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>97</v>
       </c>
-      <c r="K101">
+      <c r="B166">
         <v>3985087</v>
       </c>
-      <c r="L101">
+      <c r="C166">
         <v>3826758</v>
       </c>
-      <c r="M101">
+      <c r="D166">
         <v>4245000</v>
       </c>
-      <c r="N101">
+      <c r="E166">
         <v>4476410</v>
       </c>
-      <c r="O101">
+      <c r="F166">
         <v>4528273</v>
       </c>
-      <c r="P101">
+      <c r="G166">
         <v>5525740</v>
       </c>
-      <c r="Q101">
+      <c r="H166">
         <v>5525740</v>
       </c>
     </row>
-    <row r="102" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J102" t="s">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>18</v>
       </c>
-      <c r="K102">
+      <c r="B167">
         <v>0</v>
       </c>
-      <c r="L102">
+      <c r="C167">
         <v>0</v>
       </c>
-      <c r="M102">
+      <c r="D167">
         <v>0</v>
       </c>
-      <c r="N102">
+      <c r="E167">
         <v>0</v>
       </c>
-      <c r="O102">
+      <c r="F167">
         <v>0</v>
       </c>
-      <c r="P102">
+      <c r="G167">
         <v>0</v>
       </c>
-      <c r="Q102">
+      <c r="H167">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J103" t="s">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>19</v>
       </c>
-      <c r="K103">
+      <c r="B168">
         <v>41825076</v>
       </c>
-      <c r="L103">
+      <c r="C168">
         <v>29838712</v>
       </c>
-      <c r="M103">
+      <c r="D168">
         <v>32139517</v>
       </c>
-      <c r="N103">
+      <c r="E168">
         <v>32435139</v>
       </c>
-      <c r="O103">
+      <c r="F168">
         <v>31709537</v>
       </c>
-      <c r="P103">
+      <c r="G168">
         <f>47343920 - 23042703</f>
         <v>24301217</v>
       </c>
-      <c r="Q103">
+      <c r="H168">
         <f>45508051-21861828</f>
         <v>23646223</v>
       </c>
     </row>
-    <row r="104" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J104" t="s">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>104</v>
       </c>
-      <c r="K104">
+      <c r="B169">
         <v>229467298</v>
       </c>
-      <c r="L104">
+      <c r="C169">
         <v>212979990</v>
       </c>
-      <c r="M104">
+      <c r="D169">
         <v>225855617</v>
       </c>
-      <c r="N104">
+      <c r="E169">
         <v>238659594</v>
       </c>
-      <c r="O104">
+      <c r="F169">
         <v>231661075</v>
       </c>
-      <c r="P104">
-        <f>SUM(P84:P103)</f>
+      <c r="G169">
+        <f>SUM(G149:G168)</f>
         <v>283645752</v>
       </c>
-      <c r="Q104">
-        <f>SUM(Q84:Q103)</f>
+      <c r="H169">
+        <f>SUM(H149:H168)</f>
         <v>249995012</v>
       </c>
     </row>
-    <row r="105" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J105" t="s">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>108</v>
       </c>
-      <c r="K105">
+      <c r="B170">
         <v>138374</v>
       </c>
-      <c r="L105">
+      <c r="C170">
         <v>25326</v>
       </c>
-      <c r="M105" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="N105" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O105" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P105" s="1" t="s">
+      <c r="G170" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q105" s="1" t="s">
+      <c r="H170" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J106" t="s">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>105</v>
       </c>
-      <c r="M106">
+      <c r="D171">
         <v>-52331726</v>
       </c>
-      <c r="N106">
+      <c r="E171">
         <v>-55258672</v>
       </c>
-      <c r="O106">
+      <c r="F171">
         <v>-54317462</v>
       </c>
-      <c r="P106">
+      <c r="G171">
         <v>-25589992</v>
       </c>
-      <c r="Q106">
+      <c r="H171">
         <v>-25157694</v>
       </c>
     </row>
-    <row r="107" spans="10:17" x14ac:dyDescent="0.2">
-      <c r="J107" t="s">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>106</v>
       </c>
-      <c r="K107">
+      <c r="B172">
         <v>229467298</v>
       </c>
-      <c r="L107">
+      <c r="C172">
         <v>212979990</v>
       </c>
-      <c r="M107">
+      <c r="D172">
         <v>173523891</v>
       </c>
-      <c r="N107">
+      <c r="E172">
         <v>183400922</v>
       </c>
-      <c r="O107">
+      <c r="F172">
         <v>177343613</v>
       </c>
-      <c r="P107">
-        <f>SUM(P106,P104)</f>
+      <c r="G172">
+        <f>SUM(G171,G169)</f>
         <v>258055760</v>
       </c>
-      <c r="Q107">
-        <f>SUM(Q106,Q104)</f>
+      <c r="H172">
+        <f>SUM(H171,H169)</f>
         <v>224837318</v>
       </c>
     </row>
